--- a/resultados/por_vector/V2.xlsx
+++ b/resultados/por_vector/V2.xlsx
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="179">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>Barrio</t>
+  </si>
+  <si>
     <t>Huella / tCO2e</t>
   </si>
   <si>
@@ -289,6 +292,267 @@
   </si>
   <si>
     <t>9.5</t>
+  </si>
+  <si>
+    <t>la Seu</t>
+  </si>
+  <si>
+    <t>la Xerea</t>
+  </si>
+  <si>
+    <t>el Carme</t>
+  </si>
+  <si>
+    <t>el Pilar</t>
+  </si>
+  <si>
+    <t>el Mercat</t>
+  </si>
+  <si>
+    <t>Sant Francesc</t>
+  </si>
+  <si>
+    <t>Montolivet</t>
+  </si>
+  <si>
+    <t>En Corts</t>
+  </si>
+  <si>
+    <t>Malilla</t>
+  </si>
+  <si>
+    <t>la Fonteta Sant Lluís</t>
+  </si>
+  <si>
+    <t>na Rovella</t>
+  </si>
+  <si>
+    <t>la Punta</t>
+  </si>
+  <si>
+    <t>Ciutat de les Arts i les Ciències</t>
+  </si>
+  <si>
+    <t>el Grau</t>
+  </si>
+  <si>
+    <t>el Cabanyal-el Canyamelar</t>
+  </si>
+  <si>
+    <t>la Malva-rosa</t>
+  </si>
+  <si>
+    <t>Beteró</t>
+  </si>
+  <si>
+    <t>Natzaret</t>
+  </si>
+  <si>
+    <t>Aiora</t>
+  </si>
+  <si>
+    <t>Albors</t>
+  </si>
+  <si>
+    <t>la Creu del Grau</t>
+  </si>
+  <si>
+    <t>Camí Fondo</t>
+  </si>
+  <si>
+    <t>Penya-roja</t>
+  </si>
+  <si>
+    <t>l'Illa Perduda</t>
+  </si>
+  <si>
+    <t>Ciutat Jardí</t>
+  </si>
+  <si>
+    <t>l'Amistat</t>
+  </si>
+  <si>
+    <t>la Bega Baixa</t>
+  </si>
+  <si>
+    <t>la Carrasca</t>
+  </si>
+  <si>
+    <t>Benimaclet</t>
+  </si>
+  <si>
+    <t>Camí de Vera</t>
+  </si>
+  <si>
+    <t>Orriols</t>
+  </si>
+  <si>
+    <t>Torrefiel</t>
+  </si>
+  <si>
+    <t>Sant Llorenç</t>
+  </si>
+  <si>
+    <t>Benicalap</t>
+  </si>
+  <si>
+    <t>Ciutat Fallera</t>
+  </si>
+  <si>
+    <t>Benifaraig</t>
+  </si>
+  <si>
+    <t>Poble Nou</t>
+  </si>
+  <si>
+    <t>Carpesa</t>
+  </si>
+  <si>
+    <t>Cases de Bàrcena</t>
+  </si>
+  <si>
+    <t>Mauella</t>
+  </si>
+  <si>
+    <t>Massarrojos</t>
+  </si>
+  <si>
+    <t>Borbotó</t>
+  </si>
+  <si>
+    <t>Benimàmet</t>
+  </si>
+  <si>
+    <t>Beniferri</t>
+  </si>
+  <si>
+    <t>el Forn d'Alcedo</t>
+  </si>
+  <si>
+    <t>el Castellar-l'Oliverar</t>
+  </si>
+  <si>
+    <t>Pinedo</t>
+  </si>
+  <si>
+    <t>el Saler</t>
+  </si>
+  <si>
+    <t>el Palmar</t>
+  </si>
+  <si>
+    <t>el Perellonet</t>
+  </si>
+  <si>
+    <t>la Torre</t>
+  </si>
+  <si>
+    <t>Faitanar</t>
+  </si>
+  <si>
+    <t>Russafa</t>
+  </si>
+  <si>
+    <t>el Pla del Remei</t>
+  </si>
+  <si>
+    <t>Gran Via</t>
+  </si>
+  <si>
+    <t>el Botànic</t>
+  </si>
+  <si>
+    <t>la Roqueta</t>
+  </si>
+  <si>
+    <t>la Petxina</t>
+  </si>
+  <si>
+    <t>Arrancapins</t>
+  </si>
+  <si>
+    <t>Campanar</t>
+  </si>
+  <si>
+    <t>les Tendetes</t>
+  </si>
+  <si>
+    <t>el Calvari</t>
+  </si>
+  <si>
+    <t>Sant Pau</t>
+  </si>
+  <si>
+    <t>Marxalenes</t>
+  </si>
+  <si>
+    <t>Morvedre</t>
+  </si>
+  <si>
+    <t>Trinitat</t>
+  </si>
+  <si>
+    <t>Tormos</t>
+  </si>
+  <si>
+    <t>Sant Antoni</t>
+  </si>
+  <si>
+    <t>Exposició</t>
+  </si>
+  <si>
+    <t>Mestalla</t>
+  </si>
+  <si>
+    <t>Jaume Roig</t>
+  </si>
+  <si>
+    <t>Ciutat Universitària</t>
+  </si>
+  <si>
+    <t>Nou Moles</t>
+  </si>
+  <si>
+    <t>Soternes</t>
+  </si>
+  <si>
+    <t>Tres Forques</t>
+  </si>
+  <si>
+    <t>la Fontsanta</t>
+  </si>
+  <si>
+    <t>la Llum</t>
+  </si>
+  <si>
+    <t>Patraix</t>
+  </si>
+  <si>
+    <t>Sant Isidre</t>
+  </si>
+  <si>
+    <t>Vara de Quart</t>
+  </si>
+  <si>
+    <t>Safranar</t>
+  </si>
+  <si>
+    <t>Favara</t>
+  </si>
+  <si>
+    <t>la Raiosa</t>
+  </si>
+  <si>
+    <t>l'Hort de Senabre</t>
+  </si>
+  <si>
+    <t>la Creu Coberta</t>
+  </si>
+  <si>
+    <t>Sant Marcel·lí</t>
+  </si>
+  <si>
+    <t>Camí Real</t>
   </si>
 </sst>
 </file>
@@ -646,13 +910,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,1085 +929,1487 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0.3832376764424763</v>
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
       </c>
       <c r="C8">
-        <v>0.99</v>
+        <v>38.32376764424763</v>
       </c>
       <c r="D8">
-        <v>1.995613811927079E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.001995613811927079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>2.030272082758245</v>
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
       </c>
       <c r="C10">
-        <v>0.99</v>
+        <v>203.0272082758245</v>
       </c>
       <c r="D10">
-        <v>9.109669685279512E-05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.009109669685279511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0.4373835523320939</v>
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
       </c>
       <c r="C12">
-        <v>0.99</v>
+        <v>43.73835523320939</v>
       </c>
       <c r="D12">
-        <v>5.800842869125914E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.005800842869125914</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>5.030897769143104</v>
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
       </c>
       <c r="C13">
-        <v>0.99</v>
+        <v>503.0897769143104</v>
       </c>
       <c r="D13">
-        <v>0.001816864488675733</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0.1816864488675733</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>0.801068509968644</v>
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
       </c>
       <c r="C14">
-        <v>0.99</v>
+        <v>80.1068509968644</v>
       </c>
       <c r="D14">
-        <v>0.0001042108117560354</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.01042108117560354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>2.869871118219212</v>
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
       </c>
       <c r="C15">
-        <v>0.9899999999999999</v>
+        <v>286.9871118219212</v>
       </c>
       <c r="D15">
-        <v>0.0003022507760104489</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.03022507760104489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>0.66567775947983</v>
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
       </c>
       <c r="C16">
-        <v>0.99</v>
+        <v>66.56777594798301</v>
       </c>
       <c r="D16">
-        <v>3.466891096712828E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0.003466891096712828</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>0.4524639037186022</v>
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
       </c>
       <c r="C19">
-        <v>0.99</v>
+        <v>45.24639037186023</v>
       </c>
       <c r="D19">
-        <v>7.432061493406738E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0.007432061493406739</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>1.99175954610803</v>
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
       </c>
       <c r="C20">
-        <v>0.99</v>
+        <v>199.175954610803</v>
       </c>
       <c r="D20">
-        <v>8.11208221442606E-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0.008112082214426058</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>0.7831078510711544</v>
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
       </c>
       <c r="C21">
-        <v>0.9900000000000001</v>
+        <v>78.31078510711545</v>
       </c>
       <c r="D21">
-        <v>8.988841265738688E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0.008988841265738687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>1.197900170344815</v>
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
       </c>
       <c r="C22">
-        <v>0.9900000000000001</v>
+        <v>119.7900170344815</v>
       </c>
       <c r="D22">
-        <v>8.186292423596083E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0.008186292423596085</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>0.4807703218235745</v>
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
       </c>
       <c r="C23">
-        <v>0.99</v>
+        <v>48.07703218235745</v>
       </c>
       <c r="D23">
-        <v>0.0001061068907136558</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0.01061068907136558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>2.786758837290731</v>
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
       </c>
       <c r="C24">
-        <v>0.99</v>
+        <v>278.6758837290731</v>
       </c>
       <c r="D24">
-        <v>0.0002123568419790239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0.02123568419790239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
-        <v>0.7081444175773992</v>
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>115</v>
       </c>
       <c r="C25">
-        <v>0.99</v>
+        <v>70.81444175773991</v>
       </c>
       <c r="D25">
-        <v>8.356672381135228E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0.008356672381135227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26">
-        <v>1.113103243467066</v>
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
       </c>
       <c r="C26">
-        <v>0.99</v>
+        <v>111.3103243467066</v>
       </c>
       <c r="D26">
-        <v>9.526730943744146E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0.009526730943744146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>0.6339627151655148</v>
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
       </c>
       <c r="C27">
-        <v>0.99</v>
+        <v>63.39627151655148</v>
       </c>
       <c r="D27">
-        <v>9.038533150349513E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0.009038533150349512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>0.5921042304981216</v>
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
       </c>
       <c r="C28">
-        <v>0.99</v>
+        <v>59.21042304981215</v>
       </c>
       <c r="D28">
-        <v>0.0001097302132131434</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0.01097302132131433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>6.003594457351961</v>
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
       </c>
       <c r="C29">
-        <v>0.99</v>
+        <v>600.3594457351961</v>
       </c>
       <c r="D29">
-        <v>0.001815969285345421</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0.1815969285345421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30">
-        <v>1.142323850846823</v>
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>120</v>
       </c>
       <c r="C30">
-        <v>0.99</v>
+        <v>114.2323850846823</v>
       </c>
       <c r="D30">
-        <v>5.014811233358898E-05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0.005014811233358898</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>1.271108391365945</v>
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
       </c>
       <c r="C31">
-        <v>0.99</v>
+        <v>127.1108391365945</v>
       </c>
       <c r="D31">
-        <v>0.0002405124676189111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0.0240512467618911</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33">
-        <v>0.3857529127969135</v>
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
       </c>
       <c r="C33">
-        <v>0.9900000000000001</v>
+        <v>38.57529127969134</v>
       </c>
       <c r="D33">
-        <v>1.48178432296283E-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0.00148178432296283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34">
-        <v>0.8440270977429043</v>
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
       </c>
       <c r="C34">
-        <v>0.99</v>
+        <v>84.40270977429043</v>
       </c>
       <c r="D34">
-        <v>7.698869814310903E-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0.007698869814310903</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49">
-        <v>0.4210988059610749</v>
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>139</v>
       </c>
       <c r="C49">
-        <v>0.9900000000000001</v>
+        <v>42.10988059610748</v>
       </c>
       <c r="D49">
-        <v>0.0002222157287393535</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0.02222157287393535</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54">
-        <v>0.9777478871089733</v>
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>144</v>
       </c>
       <c r="C54">
-        <v>0.99</v>
+        <v>97.77478871089734</v>
       </c>
       <c r="D54">
-        <v>4.119434957273956E-05</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0.004119434957273955</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55">
-        <v>0.4310202642782625</v>
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>145</v>
       </c>
       <c r="C55">
-        <v>0.9900000000000001</v>
+        <v>43.10202642782625</v>
       </c>
       <c r="D55">
-        <v>6.139015300929533E-05</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0.006139015300929532</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56">
-        <v>0.5219776423829791</v>
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>146</v>
       </c>
       <c r="C56">
-        <v>0.99</v>
+        <v>52.1977642382979</v>
       </c>
       <c r="D56">
-        <v>4.380477025704759E-05</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0.004380477025704758</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57">
-        <v>0.4530347938640082</v>
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>147</v>
       </c>
       <c r="C57">
-        <v>0.99</v>
+        <v>45.30347938640083</v>
       </c>
       <c r="D57">
-        <v>6.863123676170402E-05</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0.006863123676170403</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58">
-        <v>0.2822246215130647</v>
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>148</v>
       </c>
       <c r="C58">
-        <v>0.99</v>
+        <v>28.22246215130647</v>
       </c>
       <c r="D58">
-        <v>6.209562629550379E-05</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0.006209562629550378</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59">
-        <v>0.6079060431978404</v>
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>149</v>
       </c>
       <c r="C59">
-        <v>0.99</v>
+        <v>60.79060431978404</v>
       </c>
       <c r="D59">
-        <v>4.080180167782001E-05</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0.004080180167782001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60">
-        <v>1.070266783637855</v>
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>150</v>
       </c>
       <c r="C60">
-        <v>0.99</v>
+        <v>107.0266783637856</v>
       </c>
       <c r="D60">
-        <v>4.758644718500091E-05</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0.004758644718500092</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71">
-        <v>0.7215575314789459</v>
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>161</v>
       </c>
       <c r="C71">
-        <v>0.99</v>
+        <v>72.15575314789459</v>
       </c>
       <c r="D71">
-        <v>4.942174873143465E-05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0.004942174873143465</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79">
-        <v>1.252752887669386</v>
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>169</v>
       </c>
       <c r="C79">
-        <v>0.99</v>
+        <v>125.2752887669386</v>
       </c>
       <c r="D79">
-        <v>5.155361677651793E-05</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0.005155361677651793</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80">
-        <v>0.9985329065458702</v>
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>170</v>
       </c>
       <c r="C80">
-        <v>0.99</v>
+        <v>99.85329065458704</v>
       </c>
       <c r="D80">
-        <v>9.791458193232695E-05</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0.009791458193232697</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81">
-        <v>2.086132034585515</v>
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>171</v>
       </c>
       <c r="C81">
-        <v>0.99</v>
+        <v>208.6132034585515</v>
       </c>
       <c r="D81">
-        <v>0.0002060784386629966</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0.02060784386629966</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82">
-        <v>0.889739931427495</v>
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>172</v>
       </c>
       <c r="C82">
-        <v>0.99</v>
+        <v>88.97399314274949</v>
       </c>
       <c r="D82">
-        <v>9.31372271985235E-05</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0.00931372271985235</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83">
-        <v>0.5650796210823782</v>
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
       </c>
       <c r="C83">
-        <v>0.99</v>
+        <v>56.50796210823782</v>
       </c>
       <c r="D83">
-        <v>0.0001559270477600381</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0.01559270477600381</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84">
-        <v>0.7893512108986256</v>
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>174</v>
       </c>
       <c r="C84">
-        <v>0.99</v>
+        <v>78.93512108986255</v>
       </c>
       <c r="D84">
-        <v>5.159158241167488E-05</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0.005159158241167487</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85">
-        <v>0.8963772290318608</v>
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>175</v>
       </c>
       <c r="C85">
-        <v>0.9900000000000001</v>
+        <v>89.63772290318609</v>
       </c>
       <c r="D85">
-        <v>5.316906275768793E-05</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0.005316906275768794</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86">
-        <v>0.7881717853222761</v>
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>176</v>
       </c>
       <c r="C86">
-        <v>0.99</v>
+        <v>78.8171785322276</v>
       </c>
       <c r="D86">
-        <v>0.0001316471998199893</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0.01316471998199893</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87">
-        <v>0.6947184301606876</v>
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>177</v>
       </c>
       <c r="C87">
-        <v>0.99</v>
+        <v>69.47184301606877</v>
       </c>
       <c r="D87">
-        <v>6.972284525900116E-05</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0.006972284525900118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88">
-        <v>3.106305174339748</v>
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
       </c>
       <c r="C88">
-        <v>0.99</v>
+        <v>310.6305174339748</v>
       </c>
       <c r="D88">
-        <v>0.0008108340314120983</v>
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0.08108340314120982</v>
       </c>
     </row>
   </sheetData>
@@ -1753,13 +2419,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1772,1085 +2438,1487 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0.1916188382212382</v>
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
       </c>
       <c r="C8">
-        <v>0.995</v>
+        <v>19.16188382212382</v>
       </c>
       <c r="D8">
-        <v>9.978069059635396E-06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.0009978069059635396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>1.015136041379122</v>
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
       </c>
       <c r="C10">
-        <v>0.995</v>
+        <v>101.5136041379122</v>
       </c>
       <c r="D10">
-        <v>4.554834842639756E-05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.004554834842639756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0.218691776166047</v>
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
       </c>
       <c r="C12">
-        <v>0.995</v>
+        <v>21.86917761660469</v>
       </c>
       <c r="D12">
-        <v>2.900421434562957E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <v>0.002900421434562957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>2.515448884571552</v>
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
       </c>
       <c r="C13">
-        <v>0.9950000000000001</v>
+        <v>251.5448884571552</v>
       </c>
       <c r="D13">
-        <v>0.0009084322443378664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>0.09084322443378665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>0.400534254984322</v>
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
       </c>
       <c r="C14">
-        <v>0.995</v>
+        <v>40.0534254984322</v>
       </c>
       <c r="D14">
-        <v>5.210540587801769E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <v>0.005210540587801769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>1.434935559109606</v>
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
       </c>
       <c r="C15">
-        <v>0.9950000000000001</v>
+        <v>143.4935559109606</v>
       </c>
       <c r="D15">
-        <v>0.0001511253880052245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>0.01511253880052245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>0.332838879739915</v>
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
       </c>
       <c r="C16">
-        <v>0.9950000000000001</v>
+        <v>33.2838879739915</v>
       </c>
       <c r="D16">
-        <v>1.733445548356414E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <v>0.001733445548356414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>0.2262319518593011</v>
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
       </c>
       <c r="C19">
-        <v>0.9949999999999999</v>
+        <v>22.62319518593011</v>
       </c>
       <c r="D19">
-        <v>3.716030746703369E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E19">
+        <v>0.00371603074670337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>0.9958797730540152</v>
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
       </c>
       <c r="C20">
-        <v>0.995</v>
+        <v>99.58797730540151</v>
       </c>
       <c r="D20">
-        <v>4.05604110721303E-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E20">
+        <v>0.004056041107213029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>0.3915539255355772</v>
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
       </c>
       <c r="C21">
-        <v>0.995</v>
+        <v>39.15539255355772</v>
       </c>
       <c r="D21">
-        <v>4.494420632869344E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E21">
+        <v>0.004494420632869344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>0.5989500851724074</v>
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
       </c>
       <c r="C22">
-        <v>0.995</v>
+        <v>59.89500851724075</v>
       </c>
       <c r="D22">
-        <v>4.093146211798042E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E22">
+        <v>0.004093146211798042</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>0.2403851609117872</v>
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
       </c>
       <c r="C23">
-        <v>0.995</v>
+        <v>24.03851609117872</v>
       </c>
       <c r="D23">
-        <v>5.305344535682791E-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <v>0.005305344535682791</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>1.393379418645366</v>
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
       </c>
       <c r="C24">
-        <v>0.9950000000000001</v>
+        <v>139.3379418645366</v>
       </c>
       <c r="D24">
-        <v>0.000106178420989512</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E24">
+        <v>0.0106178420989512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
-        <v>0.3540722087886996</v>
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>115</v>
       </c>
       <c r="C25">
-        <v>0.9950000000000001</v>
+        <v>35.40722087886996</v>
       </c>
       <c r="D25">
-        <v>4.178336190567614E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <v>0.004178336190567613</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26">
-        <v>0.556551621733533</v>
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
       </c>
       <c r="C26">
-        <v>0.995</v>
+        <v>55.6551621733533</v>
       </c>
       <c r="D26">
-        <v>4.763365471872073E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E26">
+        <v>0.004763365471872073</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>0.3169813575827574</v>
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
       </c>
       <c r="C27">
-        <v>0.995</v>
+        <v>31.69813575827574</v>
       </c>
       <c r="D27">
-        <v>4.519266575174756E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E27">
+        <v>0.004519266575174756</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>0.2960521152490608</v>
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
       </c>
       <c r="C28">
-        <v>0.995</v>
+        <v>29.60521152490607</v>
       </c>
       <c r="D28">
-        <v>5.486510660657168E-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E28">
+        <v>0.005486510660657167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>3.001797228675981</v>
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
       </c>
       <c r="C29">
-        <v>0.995</v>
+        <v>300.1797228675981</v>
       </c>
       <c r="D29">
-        <v>0.0009079846426727104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E29">
+        <v>0.09079846426727103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30">
-        <v>0.5711619254234117</v>
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>120</v>
       </c>
       <c r="C30">
-        <v>0.995</v>
+        <v>57.11619254234117</v>
       </c>
       <c r="D30">
-        <v>2.507405616679449E-05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E30">
+        <v>0.002507405616679449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>0.6355541956829724</v>
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
       </c>
       <c r="C31">
-        <v>0.995</v>
+        <v>63.55541956829724</v>
       </c>
       <c r="D31">
-        <v>0.0001202562338094555</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E31">
+        <v>0.01202562338094555</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33">
-        <v>0.1928764563984567</v>
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
       </c>
       <c r="C33">
-        <v>0.995</v>
+        <v>19.28764563984567</v>
       </c>
       <c r="D33">
-        <v>7.408921614814149E-06</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E33">
+        <v>0.0007408921614814148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34">
-        <v>0.4220135488714521</v>
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
       </c>
       <c r="C34">
-        <v>0.9950000000000001</v>
+        <v>42.20135488714521</v>
       </c>
       <c r="D34">
-        <v>3.849434907155451E-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E34">
+        <v>0.003849434907155452</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49">
-        <v>0.2105494029805374</v>
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>139</v>
       </c>
       <c r="C49">
-        <v>0.995</v>
+        <v>21.05494029805374</v>
       </c>
       <c r="D49">
-        <v>0.0001111078643696767</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E49">
+        <v>0.01111078643696767</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54">
-        <v>0.4888739435544867</v>
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>144</v>
       </c>
       <c r="C54">
-        <v>0.9950000000000001</v>
+        <v>48.88739435544867</v>
       </c>
       <c r="D54">
-        <v>2.059717478636978E-05</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E54">
+        <v>0.002059717478636978</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55">
-        <v>0.2155101321391313</v>
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>145</v>
       </c>
       <c r="C55">
-        <v>0.995</v>
+        <v>21.55101321391312</v>
       </c>
       <c r="D55">
-        <v>3.069507650464767E-05</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E55">
+        <v>0.003069507650464766</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56">
-        <v>0.2609888211914895</v>
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>146</v>
       </c>
       <c r="C56">
-        <v>0.995</v>
+        <v>26.09888211914895</v>
       </c>
       <c r="D56">
-        <v>2.190238512852379E-05</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E56">
+        <v>0.002190238512852379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57">
-        <v>0.2265173969320041</v>
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>147</v>
       </c>
       <c r="C57">
-        <v>0.995</v>
+        <v>22.65173969320042</v>
       </c>
       <c r="D57">
-        <v>3.431561838085201E-05</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E57">
+        <v>0.003431561838085202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58">
-        <v>0.1411123107565324</v>
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>148</v>
       </c>
       <c r="C58">
-        <v>0.995</v>
+        <v>14.11123107565323</v>
       </c>
       <c r="D58">
-        <v>3.104781314775189E-05</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E58">
+        <v>0.003104781314775189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59">
-        <v>0.3039530215989202</v>
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>149</v>
       </c>
       <c r="C59">
-        <v>0.995</v>
+        <v>30.39530215989202</v>
       </c>
       <c r="D59">
-        <v>2.040090083891001E-05</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E59">
+        <v>0.002040090083891001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60">
-        <v>0.5351333918189277</v>
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>150</v>
       </c>
       <c r="C60">
-        <v>0.995</v>
+        <v>53.51333918189278</v>
       </c>
       <c r="D60">
-        <v>2.379322359250046E-05</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E60">
+        <v>0.002379322359250046</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71">
-        <v>0.3607787657394729</v>
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>161</v>
       </c>
       <c r="C71">
-        <v>0.9950000000000001</v>
+        <v>36.07787657394729</v>
       </c>
       <c r="D71">
-        <v>2.471087436571732E-05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E71">
+        <v>0.002471087436571733</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79">
-        <v>0.6263764438346928</v>
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>169</v>
       </c>
       <c r="C79">
-        <v>0.995</v>
+        <v>62.63764438346929</v>
       </c>
       <c r="D79">
-        <v>2.577680838825896E-05</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E79">
+        <v>0.002577680838825896</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80">
-        <v>0.4992664532729351</v>
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>170</v>
       </c>
       <c r="C80">
-        <v>0.995</v>
+        <v>49.92664532729352</v>
       </c>
       <c r="D80">
-        <v>4.895729096616347E-05</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E80">
+        <v>0.004895729096616348</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81">
-        <v>1.043066017292757</v>
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>171</v>
       </c>
       <c r="C81">
-        <v>0.9950000000000001</v>
+        <v>104.3066017292758</v>
       </c>
       <c r="D81">
-        <v>0.0001030392193314983</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E81">
+        <v>0.01030392193314983</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82">
-        <v>0.4448699657137475</v>
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>172</v>
       </c>
       <c r="C82">
-        <v>0.995</v>
+        <v>44.48699657137475</v>
       </c>
       <c r="D82">
-        <v>4.656861359926175E-05</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E82">
+        <v>0.004656861359926175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83">
-        <v>0.2825398105411891</v>
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
       </c>
       <c r="C83">
-        <v>0.995</v>
+        <v>28.25398105411891</v>
       </c>
       <c r="D83">
-        <v>7.796352388001906E-05</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E83">
+        <v>0.007796352388001907</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84">
-        <v>0.3946756054493128</v>
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>174</v>
       </c>
       <c r="C84">
-        <v>0.9950000000000001</v>
+        <v>39.46756054493127</v>
       </c>
       <c r="D84">
-        <v>2.579579120583744E-05</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E84">
+        <v>0.002579579120583743</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85">
-        <v>0.4481886145159304</v>
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>175</v>
       </c>
       <c r="C85">
-        <v>0.995</v>
+        <v>44.81886145159304</v>
       </c>
       <c r="D85">
-        <v>2.658453137884396E-05</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E85">
+        <v>0.002658453137884397</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86">
-        <v>0.394085892661138</v>
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>176</v>
       </c>
       <c r="C86">
-        <v>0.995</v>
+        <v>39.4085892661138</v>
       </c>
       <c r="D86">
-        <v>6.582359990999466E-05</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E86">
+        <v>0.006582359990999466</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87">
-        <v>0.3473592150803438</v>
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>177</v>
       </c>
       <c r="C87">
-        <v>0.995</v>
+        <v>34.73592150803439</v>
       </c>
       <c r="D87">
-        <v>3.486142262950058E-05</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.5</v>
+      </c>
+      <c r="E87">
+        <v>0.003486142262950059</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88">
-        <v>1.553152587169874</v>
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
       </c>
       <c r="C88">
-        <v>0.9950000000000001</v>
+        <v>155.3152587169874</v>
       </c>
       <c r="D88">
-        <v>0.0004054170157060491</v>
+        <v>0.5</v>
+      </c>
+      <c r="E88">
+        <v>0.04054170157060491</v>
       </c>
     </row>
   </sheetData>
@@ -2860,13 +3928,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2879,1084 +3947,1486 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
       </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
       </c>
       <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
       </c>
       <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
       </c>
       <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
       </c>
       <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
       </c>
       <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
       </c>
       <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>1</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
       </c>
       <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
       </c>
       <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
       </c>
       <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>1</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>115</v>
       </c>
       <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>1</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
       </c>
       <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>1</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
       </c>
       <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
         <v>1</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
       </c>
       <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
         <v>1</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
       </c>
       <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>1</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>120</v>
       </c>
       <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
         <v>1</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
       </c>
       <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>1</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
       </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
         <v>1</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
       </c>
       <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
         <v>1</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>139</v>
       </c>
       <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
         <v>1</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>144</v>
       </c>
       <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
         <v>1</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>145</v>
       </c>
       <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
         <v>1</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>146</v>
       </c>
       <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
         <v>1</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>147</v>
       </c>
       <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
         <v>1</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>148</v>
       </c>
       <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
         <v>1</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>149</v>
       </c>
       <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
         <v>1</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>150</v>
       </c>
       <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
         <v>1</v>
       </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>161</v>
       </c>
       <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
         <v>1</v>
       </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>169</v>
       </c>
       <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
         <v>1</v>
       </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>170</v>
       </c>
       <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
         <v>1</v>
       </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>171</v>
       </c>
       <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
         <v>1</v>
       </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>172</v>
       </c>
       <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
         <v>1</v>
       </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
       </c>
       <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
         <v>1</v>
       </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>174</v>
       </c>
       <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
         <v>1</v>
       </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>175</v>
       </c>
       <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
         <v>1</v>
       </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>176</v>
       </c>
       <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
         <v>1</v>
       </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>177</v>
       </c>
       <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
         <v>1</v>
       </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
       </c>
       <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
         <v>1</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>0</v>
       </c>
     </row>

--- a/resultados/por_vector/V2.xlsx
+++ b/resultados/por_vector/V2.xlsx
@@ -8,15 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="V2_0.002" sheetId="1" r:id="rId1"/>
-    <sheet name="V2_0.001" sheetId="2" r:id="rId2"/>
-    <sheet name="V2_0" sheetId="3" r:id="rId3"/>
+    <sheet name="V2_0.0015" sheetId="2" r:id="rId2"/>
+    <sheet name="V2_0.001" sheetId="3" r:id="rId3"/>
+    <sheet name="V2_0.0005" sheetId="4" r:id="rId4"/>
+    <sheet name="V2_0" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="179">
   <si>
     <t>ID</t>
   </si>
@@ -2552,13 +2554,13 @@
         <v>98</v>
       </c>
       <c r="C8">
-        <v>19.16188382212382</v>
+        <v>28.74282573318572</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0.2500000000000002</v>
       </c>
       <c r="E8">
-        <v>0.0009978069059635396</v>
+        <v>0.001496710358945309</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2586,13 +2588,13 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>101.5136041379122</v>
+        <v>152.2704062068683</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0.2500000000000003</v>
       </c>
       <c r="E10">
-        <v>0.004554834842639756</v>
+        <v>0.006832252263959632</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2620,13 +2622,13 @@
         <v>102</v>
       </c>
       <c r="C12">
-        <v>21.86917761660469</v>
+        <v>32.80376642490704</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="E12">
-        <v>0.002900421434562957</v>
+        <v>0.004350632151844435</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2637,13 +2639,13 @@
         <v>103</v>
       </c>
       <c r="C13">
-        <v>251.5448884571552</v>
+        <v>377.3173326857328</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>0.2500000000000002</v>
       </c>
       <c r="E13">
-        <v>0.09084322443378665</v>
+        <v>0.13626483665068</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2654,13 +2656,13 @@
         <v>104</v>
       </c>
       <c r="C14">
-        <v>40.0534254984322</v>
+        <v>60.08013824764829</v>
       </c>
       <c r="D14">
-        <v>0.5</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="E14">
-        <v>0.005210540587801769</v>
+        <v>0.007815810881702651</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2671,13 +2673,13 @@
         <v>105</v>
       </c>
       <c r="C15">
-        <v>143.4935559109606</v>
+        <v>215.2403338664409</v>
       </c>
       <c r="D15">
-        <v>0.5</v>
+        <v>0.2500000000000002</v>
       </c>
       <c r="E15">
-        <v>0.01511253880052245</v>
+        <v>0.02266880820078366</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2688,13 +2690,13 @@
         <v>106</v>
       </c>
       <c r="C16">
-        <v>33.2838879739915</v>
+        <v>49.92583196098725</v>
       </c>
       <c r="D16">
-        <v>0.5</v>
+        <v>0.2500000000000002</v>
       </c>
       <c r="E16">
-        <v>0.001733445548356414</v>
+        <v>0.00260016832253462</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2739,13 +2741,13 @@
         <v>109</v>
       </c>
       <c r="C19">
-        <v>22.62319518593011</v>
+        <v>33.93479277889516</v>
       </c>
       <c r="D19">
-        <v>0.5</v>
+        <v>0.2500000000000003</v>
       </c>
       <c r="E19">
-        <v>0.00371603074670337</v>
+        <v>0.005574046120055052</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2756,13 +2758,13 @@
         <v>110</v>
       </c>
       <c r="C20">
-        <v>99.58797730540151</v>
+        <v>149.3819659581022</v>
       </c>
       <c r="D20">
-        <v>0.5</v>
+        <v>0.2500000000000002</v>
       </c>
       <c r="E20">
-        <v>0.004056041107213029</v>
+        <v>0.006084061660819542</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2773,13 +2775,13 @@
         <v>111</v>
       </c>
       <c r="C21">
-        <v>39.15539255355772</v>
+        <v>58.73308883033658</v>
       </c>
       <c r="D21">
-        <v>0.5</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="E21">
-        <v>0.004494420632869344</v>
+        <v>0.006741630949304016</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2790,13 +2792,13 @@
         <v>112</v>
       </c>
       <c r="C22">
-        <v>59.89500851724075</v>
+        <v>89.84251277586112</v>
       </c>
       <c r="D22">
-        <v>0.5</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="E22">
-        <v>0.004093146211798042</v>
+        <v>0.006139719317697063</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2807,13 +2809,13 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>24.03851609117872</v>
+        <v>36.05777413676807</v>
       </c>
       <c r="D23">
-        <v>0.5</v>
+        <v>0.2500000000000003</v>
       </c>
       <c r="E23">
-        <v>0.005305344535682791</v>
+        <v>0.007958016803524183</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2824,13 +2826,13 @@
         <v>114</v>
       </c>
       <c r="C24">
-        <v>139.3379418645366</v>
+        <v>209.0069127968049</v>
       </c>
       <c r="D24">
-        <v>0.5</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="E24">
-        <v>0.0106178420989512</v>
+        <v>0.0159267631484268</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2841,13 +2843,13 @@
         <v>115</v>
       </c>
       <c r="C25">
-        <v>35.40722087886996</v>
+        <v>53.11083131830493</v>
       </c>
       <c r="D25">
-        <v>0.5</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="E25">
-        <v>0.004178336190567613</v>
+        <v>0.00626750428585142</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2858,13 +2860,13 @@
         <v>116</v>
       </c>
       <c r="C26">
-        <v>55.6551621733533</v>
+        <v>83.48274326002993</v>
       </c>
       <c r="D26">
-        <v>0.5</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="E26">
-        <v>0.004763365471872073</v>
+        <v>0.007145048207808108</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2875,13 +2877,13 @@
         <v>117</v>
       </c>
       <c r="C27">
-        <v>31.69813575827574</v>
+        <v>47.54720363741361</v>
       </c>
       <c r="D27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E27">
-        <v>0.004519266575174756</v>
+        <v>0.006778899862762134</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2892,13 +2894,13 @@
         <v>118</v>
       </c>
       <c r="C28">
-        <v>29.60521152490607</v>
+        <v>44.40781728735912</v>
       </c>
       <c r="D28">
-        <v>0.5</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="E28">
-        <v>0.005486510660657167</v>
+        <v>0.008229765990985752</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2909,13 +2911,13 @@
         <v>119</v>
       </c>
       <c r="C29">
-        <v>300.1797228675981</v>
+        <v>450.269584301397</v>
       </c>
       <c r="D29">
-        <v>0.5</v>
+        <v>0.2500000000000002</v>
       </c>
       <c r="E29">
-        <v>0.09079846426727103</v>
+        <v>0.1361976964009065</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2926,13 +2928,13 @@
         <v>120</v>
       </c>
       <c r="C30">
-        <v>57.11619254234117</v>
+        <v>85.67428881351177</v>
       </c>
       <c r="D30">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E30">
-        <v>0.002507405616679449</v>
+        <v>0.003761108425019174</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2943,13 +2945,13 @@
         <v>121</v>
       </c>
       <c r="C31">
-        <v>63.55541956829724</v>
+        <v>95.33312935244585</v>
       </c>
       <c r="D31">
-        <v>0.5</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="E31">
-        <v>0.01202562338094555</v>
+        <v>0.01803843507141832</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2977,13 +2979,13 @@
         <v>123</v>
       </c>
       <c r="C33">
-        <v>19.28764563984567</v>
+        <v>28.93146845976851</v>
       </c>
       <c r="D33">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E33">
-        <v>0.0007408921614814148</v>
+        <v>0.001111338242222122</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2994,13 +2996,13 @@
         <v>124</v>
       </c>
       <c r="C34">
-        <v>42.20135488714521</v>
+        <v>63.30203233071781</v>
       </c>
       <c r="D34">
-        <v>0.5</v>
+        <v>0.2500000000000002</v>
       </c>
       <c r="E34">
-        <v>0.003849434907155452</v>
+        <v>0.005774152360733176</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3249,13 +3251,13 @@
         <v>139</v>
       </c>
       <c r="C49">
-        <v>21.05494029805374</v>
+        <v>31.58241044708061</v>
       </c>
       <c r="D49">
-        <v>0.5</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="E49">
-        <v>0.01111078643696767</v>
+        <v>0.01666617965545151</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3334,13 +3336,13 @@
         <v>144</v>
       </c>
       <c r="C54">
-        <v>48.88739435544867</v>
+        <v>73.33109153317298</v>
       </c>
       <c r="D54">
-        <v>0.5</v>
+        <v>0.2500000000000003</v>
       </c>
       <c r="E54">
-        <v>0.002059717478636978</v>
+        <v>0.003089576217955466</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3351,13 +3353,13 @@
         <v>145</v>
       </c>
       <c r="C55">
-        <v>21.55101321391312</v>
+        <v>32.32651982086968</v>
       </c>
       <c r="D55">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E55">
-        <v>0.003069507650464766</v>
+        <v>0.004604261475697149</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3368,13 +3370,13 @@
         <v>146</v>
       </c>
       <c r="C56">
-        <v>26.09888211914895</v>
+        <v>39.14832317872342</v>
       </c>
       <c r="D56">
-        <v>0.5</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="E56">
-        <v>0.002190238512852379</v>
+        <v>0.003285357769278568</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3385,13 +3387,13 @@
         <v>147</v>
       </c>
       <c r="C57">
-        <v>22.65173969320042</v>
+        <v>33.97760953980062</v>
       </c>
       <c r="D57">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E57">
-        <v>0.003431561838085202</v>
+        <v>0.005147342757127802</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3402,13 +3404,13 @@
         <v>148</v>
       </c>
       <c r="C58">
-        <v>14.11123107565323</v>
+        <v>21.16684661347985</v>
       </c>
       <c r="D58">
-        <v>0.5</v>
+        <v>0.2500000000000002</v>
       </c>
       <c r="E58">
-        <v>0.003104781314775189</v>
+        <v>0.004657171972162782</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3419,13 +3421,13 @@
         <v>149</v>
       </c>
       <c r="C59">
-        <v>30.39530215989202</v>
+        <v>45.59295323983802</v>
       </c>
       <c r="D59">
-        <v>0.5</v>
+        <v>0.2500000000000002</v>
       </c>
       <c r="E59">
-        <v>0.002040090083891001</v>
+        <v>0.0030601351258365</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3436,13 +3438,13 @@
         <v>150</v>
       </c>
       <c r="C60">
-        <v>53.51333918189278</v>
+        <v>80.27000877283915</v>
       </c>
       <c r="D60">
-        <v>0.5</v>
+        <v>0.2500000000000002</v>
       </c>
       <c r="E60">
-        <v>0.002379322359250046</v>
+        <v>0.003568983538875068</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3623,13 +3625,13 @@
         <v>161</v>
       </c>
       <c r="C71">
-        <v>36.07787657394729</v>
+        <v>54.11681486092093</v>
       </c>
       <c r="D71">
-        <v>0.5</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="E71">
-        <v>0.002471087436571733</v>
+        <v>0.003706631154857598</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3759,13 +3761,13 @@
         <v>169</v>
       </c>
       <c r="C79">
-        <v>62.63764438346929</v>
+        <v>93.95646657520392</v>
       </c>
       <c r="D79">
-        <v>0.5</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="E79">
-        <v>0.002577680838825896</v>
+        <v>0.003866521258238844</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3776,13 +3778,13 @@
         <v>170</v>
       </c>
       <c r="C80">
-        <v>49.92664532729352</v>
+        <v>74.88996799094026</v>
       </c>
       <c r="D80">
-        <v>0.5</v>
+        <v>0.2500000000000002</v>
       </c>
       <c r="E80">
-        <v>0.004895729096616348</v>
+        <v>0.007343593644924521</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3793,13 +3795,13 @@
         <v>171</v>
       </c>
       <c r="C81">
-        <v>104.3066017292758</v>
+        <v>156.4599025939136</v>
       </c>
       <c r="D81">
-        <v>0.5</v>
+        <v>0.2500000000000002</v>
       </c>
       <c r="E81">
-        <v>0.01030392193314983</v>
+        <v>0.01545588289972475</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3810,13 +3812,13 @@
         <v>172</v>
       </c>
       <c r="C82">
-        <v>44.48699657137475</v>
+        <v>66.73049485706211</v>
       </c>
       <c r="D82">
-        <v>0.5</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="E82">
-        <v>0.004656861359926175</v>
+        <v>0.006985292039889261</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3827,13 +3829,13 @@
         <v>173</v>
       </c>
       <c r="C83">
-        <v>28.25398105411891</v>
+        <v>42.38097158117836</v>
       </c>
       <c r="D83">
-        <v>0.5</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="E83">
-        <v>0.007796352388001907</v>
+        <v>0.01169452858200286</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3844,13 +3846,13 @@
         <v>174</v>
       </c>
       <c r="C84">
-        <v>39.46756054493127</v>
+        <v>59.2013408173969</v>
       </c>
       <c r="D84">
-        <v>0.5</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="E84">
-        <v>0.002579579120583743</v>
+        <v>0.003869368680875615</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3861,13 +3863,13 @@
         <v>175</v>
       </c>
       <c r="C85">
-        <v>44.81886145159304</v>
+        <v>67.22829217738956</v>
       </c>
       <c r="D85">
-        <v>0.5</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="E85">
-        <v>0.002658453137884397</v>
+        <v>0.003987679706826595</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3878,13 +3880,13 @@
         <v>176</v>
       </c>
       <c r="C86">
-        <v>39.4085892661138</v>
+        <v>59.1128838991707</v>
       </c>
       <c r="D86">
-        <v>0.5</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="E86">
-        <v>0.006582359990999466</v>
+        <v>0.009873539986499197</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3895,13 +3897,13 @@
         <v>177</v>
       </c>
       <c r="C87">
-        <v>34.73592150803439</v>
+        <v>52.10388226205157</v>
       </c>
       <c r="D87">
-        <v>0.5</v>
+        <v>0.2500000000000002</v>
       </c>
       <c r="E87">
-        <v>0.003486142262950059</v>
+        <v>0.005229213394425087</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3912,13 +3914,13 @@
         <v>178</v>
       </c>
       <c r="C88">
-        <v>155.3152587169874</v>
+        <v>232.9728880754811</v>
       </c>
       <c r="D88">
-        <v>0.5</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="E88">
-        <v>0.04054170157060491</v>
+        <v>0.06081255235590736</v>
       </c>
     </row>
   </sheetData>
@@ -4061,6 +4063,3024 @@
         <v>98</v>
       </c>
       <c r="C8">
+        <v>19.16188382212382</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.0009978069059635396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>101.5136041379122</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.004554834842639756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12">
+        <v>21.86917761660469</v>
+      </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <v>0.002900421434562957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13">
+        <v>251.5448884571552</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>0.09084322443378665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14">
+        <v>40.0534254984322</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <v>0.005210540587801769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15">
+        <v>143.4935559109606</v>
+      </c>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>0.01511253880052245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16">
+        <v>33.2838879739915</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <v>0.001733445548356414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19">
+        <v>22.62319518593011</v>
+      </c>
+      <c r="D19">
+        <v>0.5</v>
+      </c>
+      <c r="E19">
+        <v>0.00371603074670337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20">
+        <v>99.58797730540151</v>
+      </c>
+      <c r="D20">
+        <v>0.5</v>
+      </c>
+      <c r="E20">
+        <v>0.004056041107213029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21">
+        <v>39.15539255355772</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+      <c r="E21">
+        <v>0.004494420632869344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22">
+        <v>59.89500851724075</v>
+      </c>
+      <c r="D22">
+        <v>0.5</v>
+      </c>
+      <c r="E22">
+        <v>0.004093146211798042</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23">
+        <v>24.03851609117872</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <v>0.005305344535682791</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24">
+        <v>139.3379418645366</v>
+      </c>
+      <c r="D24">
+        <v>0.5</v>
+      </c>
+      <c r="E24">
+        <v>0.0106178420989512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25">
+        <v>35.40722087886996</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <v>0.004178336190567613</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26">
+        <v>55.6551621733533</v>
+      </c>
+      <c r="D26">
+        <v>0.5</v>
+      </c>
+      <c r="E26">
+        <v>0.004763365471872073</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27">
+        <v>31.69813575827574</v>
+      </c>
+      <c r="D27">
+        <v>0.5</v>
+      </c>
+      <c r="E27">
+        <v>0.004519266575174756</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28">
+        <v>29.60521152490607</v>
+      </c>
+      <c r="D28">
+        <v>0.5</v>
+      </c>
+      <c r="E28">
+        <v>0.005486510660657167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29">
+        <v>300.1797228675981</v>
+      </c>
+      <c r="D29">
+        <v>0.5</v>
+      </c>
+      <c r="E29">
+        <v>0.09079846426727103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30">
+        <v>57.11619254234117</v>
+      </c>
+      <c r="D30">
+        <v>0.5</v>
+      </c>
+      <c r="E30">
+        <v>0.002507405616679449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31">
+        <v>63.55541956829724</v>
+      </c>
+      <c r="D31">
+        <v>0.5</v>
+      </c>
+      <c r="E31">
+        <v>0.01202562338094555</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33">
+        <v>19.28764563984567</v>
+      </c>
+      <c r="D33">
+        <v>0.5</v>
+      </c>
+      <c r="E33">
+        <v>0.0007408921614814148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34">
+        <v>42.20135488714521</v>
+      </c>
+      <c r="D34">
+        <v>0.5</v>
+      </c>
+      <c r="E34">
+        <v>0.003849434907155452</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49">
+        <v>21.05494029805374</v>
+      </c>
+      <c r="D49">
+        <v>0.5</v>
+      </c>
+      <c r="E49">
+        <v>0.01111078643696767</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54">
+        <v>48.88739435544867</v>
+      </c>
+      <c r="D54">
+        <v>0.5</v>
+      </c>
+      <c r="E54">
+        <v>0.002059717478636978</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55">
+        <v>21.55101321391312</v>
+      </c>
+      <c r="D55">
+        <v>0.5</v>
+      </c>
+      <c r="E55">
+        <v>0.003069507650464766</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56">
+        <v>26.09888211914895</v>
+      </c>
+      <c r="D56">
+        <v>0.5</v>
+      </c>
+      <c r="E56">
+        <v>0.002190238512852379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57">
+        <v>22.65173969320042</v>
+      </c>
+      <c r="D57">
+        <v>0.5</v>
+      </c>
+      <c r="E57">
+        <v>0.003431561838085202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58">
+        <v>14.11123107565323</v>
+      </c>
+      <c r="D58">
+        <v>0.5</v>
+      </c>
+      <c r="E58">
+        <v>0.003104781314775189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59">
+        <v>30.39530215989202</v>
+      </c>
+      <c r="D59">
+        <v>0.5</v>
+      </c>
+      <c r="E59">
+        <v>0.002040090083891001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60">
+        <v>53.51333918189278</v>
+      </c>
+      <c r="D60">
+        <v>0.5</v>
+      </c>
+      <c r="E60">
+        <v>0.002379322359250046</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71">
+        <v>36.07787657394729</v>
+      </c>
+      <c r="D71">
+        <v>0.5</v>
+      </c>
+      <c r="E71">
+        <v>0.002471087436571733</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79">
+        <v>62.63764438346929</v>
+      </c>
+      <c r="D79">
+        <v>0.5</v>
+      </c>
+      <c r="E79">
+        <v>0.002577680838825896</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80">
+        <v>49.92664532729352</v>
+      </c>
+      <c r="D80">
+        <v>0.5</v>
+      </c>
+      <c r="E80">
+        <v>0.004895729096616348</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81">
+        <v>104.3066017292758</v>
+      </c>
+      <c r="D81">
+        <v>0.5</v>
+      </c>
+      <c r="E81">
+        <v>0.01030392193314983</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82">
+        <v>44.48699657137475</v>
+      </c>
+      <c r="D82">
+        <v>0.5</v>
+      </c>
+      <c r="E82">
+        <v>0.004656861359926175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83">
+        <v>28.25398105411891</v>
+      </c>
+      <c r="D83">
+        <v>0.5</v>
+      </c>
+      <c r="E83">
+        <v>0.007796352388001907</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84">
+        <v>39.46756054493127</v>
+      </c>
+      <c r="D84">
+        <v>0.5</v>
+      </c>
+      <c r="E84">
+        <v>0.002579579120583743</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85">
+        <v>44.81886145159304</v>
+      </c>
+      <c r="D85">
+        <v>0.5</v>
+      </c>
+      <c r="E85">
+        <v>0.002658453137884397</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86">
+        <v>39.4085892661138</v>
+      </c>
+      <c r="D86">
+        <v>0.5</v>
+      </c>
+      <c r="E86">
+        <v>0.006582359990999466</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87">
+        <v>34.73592150803439</v>
+      </c>
+      <c r="D87">
+        <v>0.5</v>
+      </c>
+      <c r="E87">
+        <v>0.003486142262950059</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88">
+        <v>155.3152587169874</v>
+      </c>
+      <c r="D88">
+        <v>0.5</v>
+      </c>
+      <c r="E88">
+        <v>0.04054170157060491</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8">
+        <v>9.580941911061908</v>
+      </c>
+      <c r="D8">
+        <v>0.75</v>
+      </c>
+      <c r="E8">
+        <v>0.0004989034529817698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>50.75680206895612</v>
+      </c>
+      <c r="D10">
+        <v>0.75</v>
+      </c>
+      <c r="E10">
+        <v>0.002277417421319878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12">
+        <v>10.93458880830235</v>
+      </c>
+      <c r="D12">
+        <v>0.7499999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.001450210717281479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13">
+        <v>125.7724442285776</v>
+      </c>
+      <c r="D13">
+        <v>0.75</v>
+      </c>
+      <c r="E13">
+        <v>0.04542161221689332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14">
+        <v>20.0267127492161</v>
+      </c>
+      <c r="D14">
+        <v>0.75</v>
+      </c>
+      <c r="E14">
+        <v>0.002605270293900884</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15">
+        <v>71.74677795548031</v>
+      </c>
+      <c r="D15">
+        <v>0.75</v>
+      </c>
+      <c r="E15">
+        <v>0.007556269400261223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16">
+        <v>16.64194398699575</v>
+      </c>
+      <c r="D16">
+        <v>0.75</v>
+      </c>
+      <c r="E16">
+        <v>0.000866722774178207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19">
+        <v>11.31159759296506</v>
+      </c>
+      <c r="D19">
+        <v>0.75</v>
+      </c>
+      <c r="E19">
+        <v>0.001858015373351685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20">
+        <v>49.79398865270075</v>
+      </c>
+      <c r="D20">
+        <v>0.75</v>
+      </c>
+      <c r="E20">
+        <v>0.002028020553606515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21">
+        <v>19.57769627677886</v>
+      </c>
+      <c r="D21">
+        <v>0.75</v>
+      </c>
+      <c r="E21">
+        <v>0.002247210316434672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22">
+        <v>29.94750425862038</v>
+      </c>
+      <c r="D22">
+        <v>0.7500000000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.002046573105899021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23">
+        <v>12.01925804558936</v>
+      </c>
+      <c r="D23">
+        <v>0.75</v>
+      </c>
+      <c r="E23">
+        <v>0.002652672267841395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24">
+        <v>69.66897093226828</v>
+      </c>
+      <c r="D24">
+        <v>0.75</v>
+      </c>
+      <c r="E24">
+        <v>0.005308921049475598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25">
+        <v>17.70361043943498</v>
+      </c>
+      <c r="D25">
+        <v>0.75</v>
+      </c>
+      <c r="E25">
+        <v>0.002089168095283807</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26">
+        <v>27.82758108667665</v>
+      </c>
+      <c r="D26">
+        <v>0.75</v>
+      </c>
+      <c r="E26">
+        <v>0.002381682735936036</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27">
+        <v>15.84906787913787</v>
+      </c>
+      <c r="D27">
+        <v>0.75</v>
+      </c>
+      <c r="E27">
+        <v>0.002259633287587378</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28">
+        <v>14.80260576245304</v>
+      </c>
+      <c r="D28">
+        <v>0.7499999999999999</v>
+      </c>
+      <c r="E28">
+        <v>0.002743255330328583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29">
+        <v>150.089861433799</v>
+      </c>
+      <c r="D29">
+        <v>0.75</v>
+      </c>
+      <c r="E29">
+        <v>0.04539923213363552</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30">
+        <v>28.55809627117059</v>
+      </c>
+      <c r="D30">
+        <v>0.75</v>
+      </c>
+      <c r="E30">
+        <v>0.001253702808339725</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31">
+        <v>31.77770978414862</v>
+      </c>
+      <c r="D31">
+        <v>0.7500000000000001</v>
+      </c>
+      <c r="E31">
+        <v>0.006012811690472776</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33">
+        <v>9.643822819922836</v>
+      </c>
+      <c r="D33">
+        <v>0.75</v>
+      </c>
+      <c r="E33">
+        <v>0.0003704460807407074</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34">
+        <v>21.10067744357261</v>
+      </c>
+      <c r="D34">
+        <v>0.75</v>
+      </c>
+      <c r="E34">
+        <v>0.001924717453577726</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49">
+        <v>10.52747014902687</v>
+      </c>
+      <c r="D49">
+        <v>0.75</v>
+      </c>
+      <c r="E49">
+        <v>0.005555393218483837</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54">
+        <v>24.44369717772434</v>
+      </c>
+      <c r="D54">
+        <v>0.75</v>
+      </c>
+      <c r="E54">
+        <v>0.001029858739318489</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55">
+        <v>10.77550660695656</v>
+      </c>
+      <c r="D55">
+        <v>0.75</v>
+      </c>
+      <c r="E55">
+        <v>0.001534753825232383</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56">
+        <v>13.04944105957447</v>
+      </c>
+      <c r="D56">
+        <v>0.75</v>
+      </c>
+      <c r="E56">
+        <v>0.00109511925642619</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57">
+        <v>11.32586984660021</v>
+      </c>
+      <c r="D57">
+        <v>0.75</v>
+      </c>
+      <c r="E57">
+        <v>0.001715780919042601</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58">
+        <v>7.055615537826617</v>
+      </c>
+      <c r="D58">
+        <v>0.75</v>
+      </c>
+      <c r="E58">
+        <v>0.001552390657387595</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59">
+        <v>15.19765107994601</v>
+      </c>
+      <c r="D59">
+        <v>0.7499999999999999</v>
+      </c>
+      <c r="E59">
+        <v>0.0010200450419455</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60">
+        <v>26.75666959094639</v>
+      </c>
+      <c r="D60">
+        <v>0.75</v>
+      </c>
+      <c r="E60">
+        <v>0.001189661179625023</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71">
+        <v>18.03893828697365</v>
+      </c>
+      <c r="D71">
+        <v>0.75</v>
+      </c>
+      <c r="E71">
+        <v>0.001235543718285866</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79">
+        <v>31.31882219173464</v>
+      </c>
+      <c r="D79">
+        <v>0.75</v>
+      </c>
+      <c r="E79">
+        <v>0.001288840419412948</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80">
+        <v>24.96332266364676</v>
+      </c>
+      <c r="D80">
+        <v>0.75</v>
+      </c>
+      <c r="E80">
+        <v>0.002447864548308174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81">
+        <v>52.15330086463788</v>
+      </c>
+      <c r="D81">
+        <v>0.75</v>
+      </c>
+      <c r="E81">
+        <v>0.005151960966574916</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82">
+        <v>22.24349828568737</v>
+      </c>
+      <c r="D82">
+        <v>0.7500000000000001</v>
+      </c>
+      <c r="E82">
+        <v>0.002328430679963087</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83">
+        <v>14.12699052705945</v>
+      </c>
+      <c r="D83">
+        <v>0.75</v>
+      </c>
+      <c r="E83">
+        <v>0.003898176194000953</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84">
+        <v>19.73378027246564</v>
+      </c>
+      <c r="D84">
+        <v>0.75</v>
+      </c>
+      <c r="E84">
+        <v>0.001289789560291872</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85">
+        <v>22.40943072579652</v>
+      </c>
+      <c r="D85">
+        <v>0.75</v>
+      </c>
+      <c r="E85">
+        <v>0.001329226568942198</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86">
+        <v>19.7042946330569</v>
+      </c>
+      <c r="D86">
+        <v>0.75</v>
+      </c>
+      <c r="E86">
+        <v>0.003291179995499733</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87">
+        <v>17.36796075401719</v>
+      </c>
+      <c r="D87">
+        <v>0.75</v>
+      </c>
+      <c r="E87">
+        <v>0.00174307113147503</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88">
+        <v>77.65762935849371</v>
+      </c>
+      <c r="D88">
+        <v>0.75</v>
+      </c>
+      <c r="E88">
+        <v>0.02027085078530245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">

--- a/resultados/por_vector/V2.xlsx
+++ b/resultados/por_vector/V2.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="V2_0.002" sheetId="1" r:id="rId1"/>
-    <sheet name="V2_0.0015" sheetId="2" r:id="rId2"/>
-    <sheet name="V2_0.001" sheetId="3" r:id="rId3"/>
-    <sheet name="V2_0.0005" sheetId="4" r:id="rId4"/>
-    <sheet name="V2_0" sheetId="5" r:id="rId5"/>
+    <sheet name="V2_0" sheetId="1" r:id="rId1"/>
+    <sheet name="V2_0.25" sheetId="2" r:id="rId2"/>
+    <sheet name="V2_0.5" sheetId="3" r:id="rId3"/>
+    <sheet name="V2_0.75" sheetId="4" r:id="rId4"/>
+    <sheet name="V2_1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1045,13 +1045,13 @@
         <v>98</v>
       </c>
       <c r="C8">
-        <v>38.32376764424763</v>
+        <v>7.664753528849527</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>30.6590141153981</v>
       </c>
       <c r="E8">
-        <v>0.001995613811927079</v>
+        <v>0.0003991227623854159</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1079,13 +1079,13 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>203.0272082758245</v>
+        <v>40.6054416551649</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>162.4217666206596</v>
       </c>
       <c r="E10">
-        <v>0.009109669685279511</v>
+        <v>0.001821933937055902</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1113,13 +1113,13 @@
         <v>102</v>
       </c>
       <c r="C12">
-        <v>43.73835523320939</v>
+        <v>8.747671046641878</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>34.99068418656751</v>
       </c>
       <c r="E12">
-        <v>0.005800842869125914</v>
+        <v>0.001160168573825183</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1130,13 +1130,13 @@
         <v>103</v>
       </c>
       <c r="C13">
-        <v>503.0897769143104</v>
+        <v>100.6179553828621</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>402.4718215314484</v>
       </c>
       <c r="E13">
-        <v>0.1816864488675733</v>
+        <v>0.03633728977351466</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1147,13 +1147,13 @@
         <v>104</v>
       </c>
       <c r="C14">
-        <v>80.1068509968644</v>
+        <v>16.02137019937288</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>64.08548079749151</v>
       </c>
       <c r="E14">
-        <v>0.01042108117560354</v>
+        <v>0.002084216235120707</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1164,13 +1164,13 @@
         <v>105</v>
       </c>
       <c r="C15">
-        <v>286.9871118219212</v>
+        <v>57.39742236438425</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>229.589689457537</v>
       </c>
       <c r="E15">
-        <v>0.03022507760104489</v>
+        <v>0.006045015520208979</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1181,13 +1181,13 @@
         <v>106</v>
       </c>
       <c r="C16">
-        <v>66.56777594798301</v>
+        <v>13.3135551895966</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>53.25422075838641</v>
       </c>
       <c r="E16">
-        <v>0.003466891096712828</v>
+        <v>0.0006933782193425655</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1232,13 +1232,13 @@
         <v>109</v>
       </c>
       <c r="C19">
-        <v>45.24639037186023</v>
+        <v>9.049278074372047</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>36.19711229748818</v>
       </c>
       <c r="E19">
-        <v>0.007432061493406739</v>
+        <v>0.001486412298681348</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1249,13 +1249,13 @@
         <v>110</v>
       </c>
       <c r="C20">
-        <v>199.175954610803</v>
+        <v>39.83519092216061</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>159.3407636886424</v>
       </c>
       <c r="E20">
-        <v>0.008112082214426058</v>
+        <v>0.001622416442885212</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1266,13 +1266,13 @@
         <v>111</v>
       </c>
       <c r="C21">
-        <v>78.31078510711545</v>
+        <v>15.66215702142309</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>62.64862808569236</v>
       </c>
       <c r="E21">
-        <v>0.008988841265738687</v>
+        <v>0.001797768253147738</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1283,13 +1283,13 @@
         <v>112</v>
       </c>
       <c r="C22">
-        <v>119.7900170344815</v>
+        <v>23.9580034068963</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>95.83201362758521</v>
       </c>
       <c r="E22">
-        <v>0.008186292423596085</v>
+        <v>0.001637258484719217</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1300,13 +1300,13 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>48.07703218235745</v>
+        <v>9.615406436471488</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>38.46162574588596</v>
       </c>
       <c r="E23">
-        <v>0.01061068907136558</v>
+        <v>0.002122137814273116</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1317,13 +1317,13 @@
         <v>114</v>
       </c>
       <c r="C24">
-        <v>278.6758837290731</v>
+        <v>55.73517674581463</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>222.9407069832585</v>
       </c>
       <c r="E24">
-        <v>0.02123568419790239</v>
+        <v>0.004247136839580479</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1334,13 +1334,13 @@
         <v>115</v>
       </c>
       <c r="C25">
-        <v>70.81444175773991</v>
+        <v>14.16288835154798</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>56.65155340619193</v>
       </c>
       <c r="E25">
-        <v>0.008356672381135227</v>
+        <v>0.001671334476227046</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1351,13 +1351,13 @@
         <v>116</v>
       </c>
       <c r="C26">
-        <v>111.3103243467066</v>
+        <v>22.26206486934132</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>89.04825947736528</v>
       </c>
       <c r="E26">
-        <v>0.009526730943744146</v>
+        <v>0.001905346188748829</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1368,13 +1368,13 @@
         <v>117</v>
       </c>
       <c r="C27">
-        <v>63.39627151655148</v>
+        <v>12.6792543033103</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>50.71701721324118</v>
       </c>
       <c r="E27">
-        <v>0.009038533150349512</v>
+        <v>0.001807706630069903</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1385,13 +1385,13 @@
         <v>118</v>
       </c>
       <c r="C28">
-        <v>59.21042304981215</v>
+        <v>11.84208460996243</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>47.36833843984972</v>
       </c>
       <c r="E28">
-        <v>0.01097302132131433</v>
+        <v>0.002194604264262867</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1402,13 +1402,13 @@
         <v>119</v>
       </c>
       <c r="C29">
-        <v>600.3594457351961</v>
+        <v>120.0718891470392</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>480.2875565881569</v>
       </c>
       <c r="E29">
-        <v>0.1815969285345421</v>
+        <v>0.03631938570690842</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1419,13 +1419,13 @@
         <v>120</v>
       </c>
       <c r="C30">
-        <v>114.2323850846823</v>
+        <v>22.84647701693648</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>91.38590806774587</v>
       </c>
       <c r="E30">
-        <v>0.005014811233358898</v>
+        <v>0.00100296224667178</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1436,13 +1436,13 @@
         <v>121</v>
       </c>
       <c r="C31">
-        <v>127.1108391365945</v>
+        <v>25.4221678273189</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>101.6886713092756</v>
       </c>
       <c r="E31">
-        <v>0.0240512467618911</v>
+        <v>0.004810249352378221</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,13 +1470,13 @@
         <v>123</v>
       </c>
       <c r="C33">
-        <v>38.57529127969134</v>
+        <v>7.71505825593827</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>30.86023302375307</v>
       </c>
       <c r="E33">
-        <v>0.00148178432296283</v>
+        <v>0.000296356864592566</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1487,13 +1487,13 @@
         <v>124</v>
       </c>
       <c r="C34">
-        <v>84.40270977429043</v>
+        <v>16.88054195485809</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>67.52216781943234</v>
       </c>
       <c r="E34">
-        <v>0.007698869814310903</v>
+        <v>0.001539773962862181</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1742,13 +1742,13 @@
         <v>139</v>
       </c>
       <c r="C49">
-        <v>42.10988059610748</v>
+        <v>8.421976119221497</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>33.68790447688598</v>
       </c>
       <c r="E49">
-        <v>0.02222157287393535</v>
+        <v>0.00444431457478707</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1827,13 +1827,13 @@
         <v>144</v>
       </c>
       <c r="C54">
-        <v>97.77478871089734</v>
+        <v>19.55495774217947</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>78.21983096871787</v>
       </c>
       <c r="E54">
-        <v>0.004119434957273955</v>
+        <v>0.0008238869914547913</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1844,13 +1844,13 @@
         <v>145</v>
       </c>
       <c r="C55">
-        <v>43.10202642782625</v>
+        <v>8.62040528556525</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>34.481621142261</v>
       </c>
       <c r="E55">
-        <v>0.006139015300929532</v>
+        <v>0.001227803060185907</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1861,13 +1861,13 @@
         <v>146</v>
       </c>
       <c r="C56">
-        <v>52.1977642382979</v>
+        <v>10.43955284765958</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>41.75821139063832</v>
       </c>
       <c r="E56">
-        <v>0.004380477025704758</v>
+        <v>0.0008760954051409517</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1878,13 +1878,13 @@
         <v>147</v>
       </c>
       <c r="C57">
-        <v>45.30347938640083</v>
+        <v>9.060695877280168</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>36.24278350912066</v>
       </c>
       <c r="E57">
-        <v>0.006863123676170403</v>
+        <v>0.001372624735234081</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1895,13 +1895,13 @@
         <v>148</v>
       </c>
       <c r="C58">
-        <v>28.22246215130647</v>
+        <v>5.644492430261294</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>22.57796972104518</v>
       </c>
       <c r="E58">
-        <v>0.006209562629550378</v>
+        <v>0.001241912525910076</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1912,13 +1912,13 @@
         <v>149</v>
       </c>
       <c r="C59">
-        <v>60.79060431978404</v>
+        <v>12.15812086395681</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>48.63248345582723</v>
       </c>
       <c r="E59">
-        <v>0.004080180167782001</v>
+        <v>0.0008160360335564003</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1929,13 +1929,13 @@
         <v>150</v>
       </c>
       <c r="C60">
-        <v>107.0266783637856</v>
+        <v>21.40533567275711</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>85.62134269102845</v>
       </c>
       <c r="E60">
-        <v>0.004758644718500092</v>
+        <v>0.0009517289437000183</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2116,13 +2116,13 @@
         <v>161</v>
       </c>
       <c r="C71">
-        <v>72.15575314789459</v>
+        <v>14.43115062957892</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>57.72460251831566</v>
       </c>
       <c r="E71">
-        <v>0.004942174873143465</v>
+        <v>0.0009884349746286931</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2252,13 +2252,13 @@
         <v>169</v>
       </c>
       <c r="C79">
-        <v>125.2752887669386</v>
+        <v>25.05505775338772</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>100.2202310135509</v>
       </c>
       <c r="E79">
-        <v>0.005155361677651793</v>
+        <v>0.001031072335530359</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2269,13 +2269,13 @@
         <v>170</v>
       </c>
       <c r="C80">
-        <v>99.85329065458704</v>
+        <v>19.97065813091741</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>79.88263252366963</v>
       </c>
       <c r="E80">
-        <v>0.009791458193232697</v>
+        <v>0.001958291638646539</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2286,13 +2286,13 @@
         <v>171</v>
       </c>
       <c r="C81">
-        <v>208.6132034585515</v>
+        <v>41.7226406917103</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>166.8905627668412</v>
       </c>
       <c r="E81">
-        <v>0.02060784386629966</v>
+        <v>0.004121568773259933</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2303,13 +2303,13 @@
         <v>172</v>
       </c>
       <c r="C82">
-        <v>88.97399314274949</v>
+        <v>17.7947986285499</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>71.17919451419959</v>
       </c>
       <c r="E82">
-        <v>0.00931372271985235</v>
+        <v>0.00186274454397047</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2320,13 +2320,13 @@
         <v>173</v>
       </c>
       <c r="C83">
-        <v>56.50796210823782</v>
+        <v>11.30159242164756</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>45.20636968659026</v>
       </c>
       <c r="E83">
-        <v>0.01559270477600381</v>
+        <v>0.003118540955200763</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2337,13 +2337,13 @@
         <v>174</v>
       </c>
       <c r="C84">
-        <v>78.93512108986255</v>
+        <v>15.78702421797251</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>63.14809687189004</v>
       </c>
       <c r="E84">
-        <v>0.005159158241167487</v>
+        <v>0.001031831648233497</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2354,13 +2354,13 @@
         <v>175</v>
       </c>
       <c r="C85">
-        <v>89.63772290318609</v>
+        <v>17.92754458063722</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>71.71017832254887</v>
       </c>
       <c r="E85">
-        <v>0.005316906275768794</v>
+        <v>0.001063381255153759</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2371,13 +2371,13 @@
         <v>176</v>
       </c>
       <c r="C86">
-        <v>78.8171785322276</v>
+        <v>15.76343570644552</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>63.05374282578208</v>
       </c>
       <c r="E86">
-        <v>0.01316471998199893</v>
+        <v>0.002632943996399787</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2388,13 +2388,13 @@
         <v>177</v>
       </c>
       <c r="C87">
-        <v>69.47184301606877</v>
+        <v>13.89436860321375</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>55.57747441285502</v>
       </c>
       <c r="E87">
-        <v>0.006972284525900118</v>
+        <v>0.001394456905180023</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2405,13 +2405,13 @@
         <v>178</v>
       </c>
       <c r="C88">
-        <v>310.6305174339748</v>
+        <v>62.12610348679497</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>248.5044139471798</v>
       </c>
       <c r="E88">
-        <v>0.08108340314120982</v>
+        <v>0.01621668062824197</v>
       </c>
     </row>
   </sheetData>
@@ -2554,13 +2554,13 @@
         <v>98</v>
       </c>
       <c r="C8">
-        <v>28.74282573318572</v>
+        <v>5.748565146637145</v>
       </c>
       <c r="D8">
-        <v>0.2500000000000002</v>
+        <v>32.57520249761048</v>
       </c>
       <c r="E8">
-        <v>0.001496710358945309</v>
+        <v>0.0002993420717890619</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2588,13 +2588,13 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>152.2704062068683</v>
+        <v>30.45408124137367</v>
       </c>
       <c r="D10">
-        <v>0.2500000000000003</v>
+        <v>172.5731270344508</v>
       </c>
       <c r="E10">
-        <v>0.006832252263959632</v>
+        <v>0.001366450452791927</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2622,13 +2622,13 @@
         <v>102</v>
       </c>
       <c r="C12">
-        <v>32.80376642490704</v>
+        <v>6.560753284981409</v>
       </c>
       <c r="D12">
-        <v>0.2500000000000001</v>
+        <v>37.17760194822798</v>
       </c>
       <c r="E12">
-        <v>0.004350632151844435</v>
+        <v>0.0008701264303688872</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2639,13 +2639,13 @@
         <v>103</v>
       </c>
       <c r="C13">
-        <v>377.3173326857328</v>
+        <v>75.46346653714656</v>
       </c>
       <c r="D13">
-        <v>0.2500000000000002</v>
+        <v>427.6263103771639</v>
       </c>
       <c r="E13">
-        <v>0.13626483665068</v>
+        <v>0.02725296733013599</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2656,13 +2656,13 @@
         <v>104</v>
       </c>
       <c r="C14">
-        <v>60.08013824764829</v>
+        <v>12.01602764952966</v>
       </c>
       <c r="D14">
-        <v>0.2500000000000001</v>
+        <v>68.09082334733473</v>
       </c>
       <c r="E14">
-        <v>0.007815810881702651</v>
+        <v>0.001563162176340531</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2673,13 +2673,13 @@
         <v>105</v>
       </c>
       <c r="C15">
-        <v>215.2403338664409</v>
+        <v>43.04806677328819</v>
       </c>
       <c r="D15">
-        <v>0.2500000000000002</v>
+        <v>243.9390450486331</v>
       </c>
       <c r="E15">
-        <v>0.02266880820078366</v>
+        <v>0.004533761640156734</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2690,13 +2690,13 @@
         <v>106</v>
       </c>
       <c r="C16">
-        <v>49.92583196098725</v>
+        <v>9.985166392197451</v>
       </c>
       <c r="D16">
-        <v>0.2500000000000002</v>
+        <v>56.58260955578556</v>
       </c>
       <c r="E16">
-        <v>0.00260016832253462</v>
+        <v>0.0005200336645069241</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2741,13 +2741,13 @@
         <v>109</v>
       </c>
       <c r="C19">
-        <v>33.93479277889516</v>
+        <v>6.786958555779035</v>
       </c>
       <c r="D19">
-        <v>0.2500000000000003</v>
+        <v>38.45943181608119</v>
       </c>
       <c r="E19">
-        <v>0.005574046120055052</v>
+        <v>0.001114809224011011</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2758,13 +2758,13 @@
         <v>110</v>
       </c>
       <c r="C20">
-        <v>149.3819659581022</v>
+        <v>29.87639319162045</v>
       </c>
       <c r="D20">
-        <v>0.2500000000000002</v>
+        <v>169.2995614191826</v>
       </c>
       <c r="E20">
-        <v>0.006084061660819542</v>
+        <v>0.001216812332163909</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2775,13 +2775,13 @@
         <v>111</v>
       </c>
       <c r="C21">
-        <v>58.73308883033658</v>
+        <v>11.74661776606732</v>
       </c>
       <c r="D21">
-        <v>0.2500000000000001</v>
+        <v>66.56416734104813</v>
       </c>
       <c r="E21">
-        <v>0.006741630949304016</v>
+        <v>0.001348326189860803</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2792,13 +2792,13 @@
         <v>112</v>
       </c>
       <c r="C22">
-        <v>89.84251277586112</v>
+        <v>17.96850255517223</v>
       </c>
       <c r="D22">
-        <v>0.2500000000000001</v>
+        <v>101.8215144793093</v>
       </c>
       <c r="E22">
-        <v>0.006139719317697063</v>
+        <v>0.001227943863539413</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2809,13 +2809,13 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>36.05777413676807</v>
+        <v>7.211554827353617</v>
       </c>
       <c r="D23">
-        <v>0.2500000000000003</v>
+        <v>40.86547735500383</v>
       </c>
       <c r="E23">
-        <v>0.007958016803524183</v>
+        <v>0.001591603360704837</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2826,13 +2826,13 @@
         <v>114</v>
       </c>
       <c r="C24">
-        <v>209.0069127968049</v>
+        <v>41.80138255936097</v>
       </c>
       <c r="D24">
-        <v>0.2499999999999999</v>
+        <v>236.8745011697121</v>
       </c>
       <c r="E24">
-        <v>0.0159267631484268</v>
+        <v>0.003185352629685359</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2843,13 +2843,13 @@
         <v>115</v>
       </c>
       <c r="C25">
-        <v>53.11083131830493</v>
+        <v>10.62216626366099</v>
       </c>
       <c r="D25">
-        <v>0.2500000000000001</v>
+        <v>60.19227549407893</v>
       </c>
       <c r="E25">
-        <v>0.00626750428585142</v>
+        <v>0.001253500857170284</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2860,13 +2860,13 @@
         <v>116</v>
       </c>
       <c r="C26">
-        <v>83.48274326002993</v>
+        <v>16.69654865200599</v>
       </c>
       <c r="D26">
-        <v>0.2500000000000001</v>
+        <v>94.61377569470061</v>
       </c>
       <c r="E26">
-        <v>0.007145048207808108</v>
+        <v>0.001429009641561622</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2877,13 +2877,13 @@
         <v>117</v>
       </c>
       <c r="C27">
-        <v>47.54720363741361</v>
+        <v>9.509440727482721</v>
       </c>
       <c r="D27">
-        <v>0.25</v>
+        <v>53.88683078906876</v>
       </c>
       <c r="E27">
-        <v>0.006778899862762134</v>
+        <v>0.001355779972552427</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2894,13 +2894,13 @@
         <v>118</v>
       </c>
       <c r="C28">
-        <v>44.40781728735912</v>
+        <v>8.881563457471824</v>
       </c>
       <c r="D28">
-        <v>0.2499999999999999</v>
+        <v>50.32885959234032</v>
       </c>
       <c r="E28">
-        <v>0.008229765990985752</v>
+        <v>0.00164595319819715</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2911,13 +2911,13 @@
         <v>119</v>
       </c>
       <c r="C29">
-        <v>450.269584301397</v>
+        <v>90.05391686027943</v>
       </c>
       <c r="D29">
-        <v>0.2500000000000002</v>
+        <v>510.3055288749167</v>
       </c>
       <c r="E29">
-        <v>0.1361976964009065</v>
+        <v>0.02723953928018132</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2928,13 +2928,13 @@
         <v>120</v>
       </c>
       <c r="C30">
-        <v>85.67428881351177</v>
+        <v>17.13485776270236</v>
       </c>
       <c r="D30">
-        <v>0.25</v>
+        <v>97.09752732198</v>
       </c>
       <c r="E30">
-        <v>0.003761108425019174</v>
+        <v>0.000752221685003835</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2945,13 +2945,13 @@
         <v>121</v>
       </c>
       <c r="C31">
-        <v>95.33312935244585</v>
+        <v>19.06662587048917</v>
       </c>
       <c r="D31">
-        <v>0.2500000000000001</v>
+        <v>108.0442132661053</v>
       </c>
       <c r="E31">
-        <v>0.01803843507141832</v>
+        <v>0.003607687014283665</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2979,13 +2979,13 @@
         <v>123</v>
       </c>
       <c r="C33">
-        <v>28.93146845976851</v>
+        <v>5.786293691953703</v>
       </c>
       <c r="D33">
-        <v>0.25</v>
+        <v>32.78899758773764</v>
       </c>
       <c r="E33">
-        <v>0.001111338242222122</v>
+        <v>0.0002222676484444245</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2996,13 +2996,13 @@
         <v>124</v>
       </c>
       <c r="C34">
-        <v>63.30203233071781</v>
+        <v>12.66040646614356</v>
       </c>
       <c r="D34">
-        <v>0.2500000000000002</v>
+        <v>71.74230330814686</v>
       </c>
       <c r="E34">
-        <v>0.005774152360733176</v>
+        <v>0.001154830472146636</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3251,13 +3251,13 @@
         <v>139</v>
       </c>
       <c r="C49">
-        <v>31.58241044708061</v>
+        <v>6.316482089416122</v>
       </c>
       <c r="D49">
-        <v>0.2500000000000001</v>
+        <v>35.79339850669136</v>
       </c>
       <c r="E49">
-        <v>0.01666617965545151</v>
+        <v>0.003333235931090302</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3336,13 +3336,13 @@
         <v>144</v>
       </c>
       <c r="C54">
-        <v>73.33109153317298</v>
+        <v>14.6662183066346</v>
       </c>
       <c r="D54">
-        <v>0.2500000000000003</v>
+        <v>83.10857040426274</v>
       </c>
       <c r="E54">
-        <v>0.003089576217955466</v>
+        <v>0.0006179152435910934</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3353,13 +3353,13 @@
         <v>145</v>
       </c>
       <c r="C55">
-        <v>32.32651982086968</v>
+        <v>6.465303964173938</v>
       </c>
       <c r="D55">
-        <v>0.25</v>
+        <v>36.6367224636523</v>
       </c>
       <c r="E55">
-        <v>0.004604261475697149</v>
+        <v>0.0009208522951394299</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3370,13 +3370,13 @@
         <v>146</v>
       </c>
       <c r="C56">
-        <v>39.14832317872342</v>
+        <v>7.829664635744686</v>
       </c>
       <c r="D56">
-        <v>0.2500000000000001</v>
+        <v>44.36809960255322</v>
       </c>
       <c r="E56">
-        <v>0.003285357769278568</v>
+        <v>0.0006570715538557139</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3387,13 +3387,13 @@
         <v>147</v>
       </c>
       <c r="C57">
-        <v>33.97760953980062</v>
+        <v>6.795521907960126</v>
       </c>
       <c r="D57">
-        <v>0.25</v>
+        <v>38.5079574784407</v>
       </c>
       <c r="E57">
-        <v>0.005147342757127802</v>
+        <v>0.001029468551425561</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3404,13 +3404,13 @@
         <v>148</v>
       </c>
       <c r="C58">
-        <v>21.16684661347985</v>
+        <v>4.23336932269597</v>
       </c>
       <c r="D58">
-        <v>0.2500000000000002</v>
+        <v>23.9890928286105</v>
       </c>
       <c r="E58">
-        <v>0.004657171972162782</v>
+        <v>0.0009314343944325567</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3421,13 +3421,13 @@
         <v>149</v>
       </c>
       <c r="C59">
-        <v>45.59295323983802</v>
+        <v>9.118590647967606</v>
       </c>
       <c r="D59">
-        <v>0.2500000000000002</v>
+        <v>51.67201367181643</v>
       </c>
       <c r="E59">
-        <v>0.0030601351258365</v>
+        <v>0.0006120270251673002</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3438,13 +3438,13 @@
         <v>150</v>
       </c>
       <c r="C60">
-        <v>80.27000877283915</v>
+        <v>16.05400175456784</v>
       </c>
       <c r="D60">
-        <v>0.2500000000000002</v>
+        <v>90.97267660921773</v>
       </c>
       <c r="E60">
-        <v>0.003568983538875068</v>
+        <v>0.0007137967077750138</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3625,13 +3625,13 @@
         <v>161</v>
       </c>
       <c r="C71">
-        <v>54.11681486092093</v>
+        <v>10.82336297218419</v>
       </c>
       <c r="D71">
-        <v>0.2500000000000001</v>
+        <v>61.3323901757104</v>
       </c>
       <c r="E71">
-        <v>0.003706631154857598</v>
+        <v>0.0007413262309715197</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3761,13 +3761,13 @@
         <v>169</v>
       </c>
       <c r="C79">
-        <v>93.95646657520392</v>
+        <v>18.79129331504079</v>
       </c>
       <c r="D79">
-        <v>0.2500000000000001</v>
+        <v>106.4839954518978</v>
       </c>
       <c r="E79">
-        <v>0.003866521258238844</v>
+        <v>0.0007733042516477691</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3778,13 +3778,13 @@
         <v>170</v>
       </c>
       <c r="C80">
-        <v>74.88996799094026</v>
+        <v>14.97799359818806</v>
       </c>
       <c r="D80">
-        <v>0.2500000000000002</v>
+        <v>84.87529705639898</v>
       </c>
       <c r="E80">
-        <v>0.007343593644924521</v>
+        <v>0.001468718728984904</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3795,13 +3795,13 @@
         <v>171</v>
       </c>
       <c r="C81">
-        <v>156.4599025939136</v>
+        <v>31.29198051878273</v>
       </c>
       <c r="D81">
-        <v>0.2500000000000002</v>
+        <v>177.3212229397688</v>
       </c>
       <c r="E81">
-        <v>0.01545588289972475</v>
+        <v>0.00309117657994495</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3812,13 +3812,13 @@
         <v>172</v>
       </c>
       <c r="C82">
-        <v>66.73049485706211</v>
+        <v>13.34609897141243</v>
       </c>
       <c r="D82">
-        <v>0.2500000000000001</v>
+        <v>75.62789417133706</v>
       </c>
       <c r="E82">
-        <v>0.006985292039889261</v>
+        <v>0.001397058407977853</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3829,13 +3829,13 @@
         <v>173</v>
       </c>
       <c r="C83">
-        <v>42.38097158117836</v>
+        <v>8.476194316235674</v>
       </c>
       <c r="D83">
-        <v>0.2500000000000001</v>
+        <v>48.03176779200214</v>
       </c>
       <c r="E83">
-        <v>0.01169452858200286</v>
+        <v>0.002338905716400572</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3846,13 +3846,13 @@
         <v>174</v>
       </c>
       <c r="C84">
-        <v>59.2013408173969</v>
+        <v>11.84026816347938</v>
       </c>
       <c r="D84">
-        <v>0.2500000000000001</v>
+        <v>67.09485292638317</v>
       </c>
       <c r="E84">
-        <v>0.003869368680875615</v>
+        <v>0.000773873736175123</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3863,13 +3863,13 @@
         <v>175</v>
       </c>
       <c r="C85">
-        <v>67.22829217738956</v>
+        <v>13.44565843547791</v>
       </c>
       <c r="D85">
-        <v>0.2500000000000001</v>
+        <v>76.19206446770818</v>
       </c>
       <c r="E85">
-        <v>0.003987679706826595</v>
+        <v>0.0007975359413653191</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3880,13 +3880,13 @@
         <v>176</v>
       </c>
       <c r="C86">
-        <v>59.1128838991707</v>
+        <v>11.82257677983414</v>
       </c>
       <c r="D86">
-        <v>0.2500000000000001</v>
+        <v>66.99460175239346</v>
       </c>
       <c r="E86">
-        <v>0.009873539986499197</v>
+        <v>0.00197470799729984</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3897,13 +3897,13 @@
         <v>177</v>
       </c>
       <c r="C87">
-        <v>52.10388226205157</v>
+        <v>10.42077645241032</v>
       </c>
       <c r="D87">
-        <v>0.2500000000000002</v>
+        <v>59.05106656365846</v>
       </c>
       <c r="E87">
-        <v>0.005229213394425087</v>
+        <v>0.001045842678885018</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3914,13 +3914,13 @@
         <v>178</v>
       </c>
       <c r="C88">
-        <v>232.9728880754811</v>
+        <v>46.59457761509623</v>
       </c>
       <c r="D88">
-        <v>0.2500000000000001</v>
+        <v>264.0359398188786</v>
       </c>
       <c r="E88">
-        <v>0.06081255235590736</v>
+        <v>0.01216251047118148</v>
       </c>
     </row>
   </sheetData>
@@ -4063,13 +4063,13 @@
         <v>98</v>
       </c>
       <c r="C8">
-        <v>19.16188382212382</v>
+        <v>3.832376764424763</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>34.49139087982287</v>
       </c>
       <c r="E8">
-        <v>0.0009978069059635396</v>
+        <v>0.0001995613811927079</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4097,13 +4097,13 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>101.5136041379122</v>
+        <v>20.30272082758245</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>182.724487448242</v>
       </c>
       <c r="E10">
-        <v>0.004554834842639756</v>
+        <v>0.0009109669685279511</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4131,13 +4131,13 @@
         <v>102</v>
       </c>
       <c r="C12">
-        <v>21.86917761660469</v>
+        <v>4.373835523320939</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <v>39.36451970988845</v>
       </c>
       <c r="E12">
-        <v>0.002900421434562957</v>
+        <v>0.0005800842869125914</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4148,13 +4148,13 @@
         <v>103</v>
       </c>
       <c r="C13">
-        <v>251.5448884571552</v>
+        <v>50.30897769143105</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>452.7807992228794</v>
       </c>
       <c r="E13">
-        <v>0.09084322443378665</v>
+        <v>0.01816864488675733</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4165,13 +4165,13 @@
         <v>104</v>
       </c>
       <c r="C14">
-        <v>40.0534254984322</v>
+        <v>8.010685099686439</v>
       </c>
       <c r="D14">
-        <v>0.5</v>
+        <v>72.09616589717795</v>
       </c>
       <c r="E14">
-        <v>0.005210540587801769</v>
+        <v>0.001042108117560354</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4182,13 +4182,13 @@
         <v>105</v>
       </c>
       <c r="C15">
-        <v>143.4935559109606</v>
+        <v>28.69871118219213</v>
       </c>
       <c r="D15">
-        <v>0.5</v>
+        <v>258.2884006397291</v>
       </c>
       <c r="E15">
-        <v>0.01511253880052245</v>
+        <v>0.00302250776010449</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4199,13 +4199,13 @@
         <v>106</v>
       </c>
       <c r="C16">
-        <v>33.2838879739915</v>
+        <v>6.6567775947983</v>
       </c>
       <c r="D16">
-        <v>0.5</v>
+        <v>59.91099835318471</v>
       </c>
       <c r="E16">
-        <v>0.001733445548356414</v>
+        <v>0.0003466891096712828</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4250,13 +4250,13 @@
         <v>109</v>
       </c>
       <c r="C19">
-        <v>22.62319518593011</v>
+        <v>4.524639037186024</v>
       </c>
       <c r="D19">
-        <v>0.5</v>
+        <v>40.72175133467421</v>
       </c>
       <c r="E19">
-        <v>0.00371603074670337</v>
+        <v>0.0007432061493406741</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4267,13 +4267,13 @@
         <v>110</v>
       </c>
       <c r="C20">
-        <v>99.58797730540151</v>
+        <v>19.9175954610803</v>
       </c>
       <c r="D20">
-        <v>0.5</v>
+        <v>179.2583591497227</v>
       </c>
       <c r="E20">
-        <v>0.004056041107213029</v>
+        <v>0.0008112082214426059</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4284,13 +4284,13 @@
         <v>111</v>
       </c>
       <c r="C21">
-        <v>39.15539255355772</v>
+        <v>7.831078510711546</v>
       </c>
       <c r="D21">
-        <v>0.5</v>
+        <v>70.4797065964039</v>
       </c>
       <c r="E21">
-        <v>0.004494420632869344</v>
+        <v>0.0008988841265738689</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4301,13 +4301,13 @@
         <v>112</v>
       </c>
       <c r="C22">
-        <v>59.89500851724075</v>
+        <v>11.97900170344815</v>
       </c>
       <c r="D22">
-        <v>0.5</v>
+        <v>107.8110153310334</v>
       </c>
       <c r="E22">
-        <v>0.004093146211798042</v>
+        <v>0.0008186292423596084</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4318,13 +4318,13 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>24.03851609117872</v>
+        <v>4.807703218235744</v>
       </c>
       <c r="D23">
-        <v>0.5</v>
+        <v>43.2693289641217</v>
       </c>
       <c r="E23">
-        <v>0.005305344535682791</v>
+        <v>0.001061068907136558</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4335,13 +4335,13 @@
         <v>114</v>
       </c>
       <c r="C24">
-        <v>139.3379418645366</v>
+        <v>27.86758837290732</v>
       </c>
       <c r="D24">
-        <v>0.5</v>
+        <v>250.8082953561658</v>
       </c>
       <c r="E24">
-        <v>0.0106178420989512</v>
+        <v>0.00212356841979024</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4352,13 +4352,13 @@
         <v>115</v>
       </c>
       <c r="C25">
-        <v>35.40722087886996</v>
+        <v>7.081444175773992</v>
       </c>
       <c r="D25">
-        <v>0.5</v>
+        <v>63.73299758196592</v>
       </c>
       <c r="E25">
-        <v>0.004178336190567613</v>
+        <v>0.0008356672381135228</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4369,13 +4369,13 @@
         <v>116</v>
       </c>
       <c r="C26">
-        <v>55.6551621733533</v>
+        <v>11.13103243467066</v>
       </c>
       <c r="D26">
-        <v>0.5</v>
+        <v>100.1792919120359</v>
       </c>
       <c r="E26">
-        <v>0.004763365471872073</v>
+        <v>0.0009526730943744146</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4386,13 +4386,13 @@
         <v>117</v>
       </c>
       <c r="C27">
-        <v>31.69813575827574</v>
+        <v>6.339627151655148</v>
       </c>
       <c r="D27">
-        <v>0.5</v>
+        <v>57.05664436489633</v>
       </c>
       <c r="E27">
-        <v>0.004519266575174756</v>
+        <v>0.0009038533150349513</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4403,13 +4403,13 @@
         <v>118</v>
       </c>
       <c r="C28">
-        <v>29.60521152490607</v>
+        <v>5.921042304981215</v>
       </c>
       <c r="D28">
-        <v>0.5</v>
+        <v>53.28938074483094</v>
       </c>
       <c r="E28">
-        <v>0.005486510660657167</v>
+        <v>0.001097302132131433</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4420,13 +4420,13 @@
         <v>119</v>
       </c>
       <c r="C29">
-        <v>300.1797228675981</v>
+        <v>60.03594457351961</v>
       </c>
       <c r="D29">
-        <v>0.5</v>
+        <v>540.3235011616765</v>
       </c>
       <c r="E29">
-        <v>0.09079846426727103</v>
+        <v>0.01815969285345421</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4437,13 +4437,13 @@
         <v>120</v>
       </c>
       <c r="C30">
-        <v>57.11619254234117</v>
+        <v>11.42323850846824</v>
       </c>
       <c r="D30">
-        <v>0.5</v>
+        <v>102.8091465762141</v>
       </c>
       <c r="E30">
-        <v>0.002507405616679449</v>
+        <v>0.00050148112333589</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4454,13 +4454,13 @@
         <v>121</v>
       </c>
       <c r="C31">
-        <v>63.55541956829724</v>
+        <v>12.71108391365945</v>
       </c>
       <c r="D31">
-        <v>0.5</v>
+        <v>114.399755222935</v>
       </c>
       <c r="E31">
-        <v>0.01202562338094555</v>
+        <v>0.002405124676189111</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4488,13 +4488,13 @@
         <v>123</v>
       </c>
       <c r="C33">
-        <v>19.28764563984567</v>
+        <v>3.857529127969135</v>
       </c>
       <c r="D33">
-        <v>0.5</v>
+        <v>34.71776215172221</v>
       </c>
       <c r="E33">
-        <v>0.0007408921614814148</v>
+        <v>0.000148178432296283</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4505,13 +4505,13 @@
         <v>124</v>
       </c>
       <c r="C34">
-        <v>42.20135488714521</v>
+        <v>8.440270977429043</v>
       </c>
       <c r="D34">
-        <v>0.5</v>
+        <v>75.96243879686139</v>
       </c>
       <c r="E34">
-        <v>0.003849434907155452</v>
+        <v>0.0007698869814310903</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4760,13 +4760,13 @@
         <v>139</v>
       </c>
       <c r="C49">
-        <v>21.05494029805374</v>
+        <v>4.210988059610749</v>
       </c>
       <c r="D49">
-        <v>0.5</v>
+        <v>37.89889253649673</v>
       </c>
       <c r="E49">
-        <v>0.01111078643696767</v>
+        <v>0.002222157287393535</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4845,13 +4845,13 @@
         <v>144</v>
       </c>
       <c r="C54">
-        <v>48.88739435544867</v>
+        <v>9.777478871089736</v>
       </c>
       <c r="D54">
-        <v>0.5</v>
+        <v>87.9973098398076</v>
       </c>
       <c r="E54">
-        <v>0.002059717478636978</v>
+        <v>0.0004119434957273957</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4862,13 +4862,13 @@
         <v>145</v>
       </c>
       <c r="C55">
-        <v>21.55101321391312</v>
+        <v>4.310202642782625</v>
       </c>
       <c r="D55">
-        <v>0.5</v>
+        <v>38.79182378504362</v>
       </c>
       <c r="E55">
-        <v>0.003069507650464766</v>
+        <v>0.0006139015300929533</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4879,13 +4879,13 @@
         <v>146</v>
       </c>
       <c r="C56">
-        <v>26.09888211914895</v>
+        <v>5.21977642382979</v>
       </c>
       <c r="D56">
-        <v>0.5</v>
+        <v>46.97798781446811</v>
       </c>
       <c r="E56">
-        <v>0.002190238512852379</v>
+        <v>0.0004380477025704759</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4896,13 +4896,13 @@
         <v>147</v>
       </c>
       <c r="C57">
-        <v>22.65173969320042</v>
+        <v>4.530347938640084</v>
       </c>
       <c r="D57">
-        <v>0.5</v>
+        <v>40.77313144776075</v>
       </c>
       <c r="E57">
-        <v>0.003431561838085202</v>
+        <v>0.0006863123676170404</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4913,13 +4913,13 @@
         <v>148</v>
       </c>
       <c r="C58">
-        <v>14.11123107565323</v>
+        <v>2.822246215130647</v>
       </c>
       <c r="D58">
-        <v>0.5</v>
+        <v>25.40021593617582</v>
       </c>
       <c r="E58">
-        <v>0.003104781314775189</v>
+        <v>0.0006209562629550378</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4930,13 +4930,13 @@
         <v>149</v>
       </c>
       <c r="C59">
-        <v>30.39530215989202</v>
+        <v>6.079060431978404</v>
       </c>
       <c r="D59">
-        <v>0.5</v>
+        <v>54.71154388780563</v>
       </c>
       <c r="E59">
-        <v>0.002040090083891001</v>
+        <v>0.0004080180167782001</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4947,13 +4947,13 @@
         <v>150</v>
       </c>
       <c r="C60">
-        <v>53.51333918189278</v>
+        <v>10.70266783637856</v>
       </c>
       <c r="D60">
-        <v>0.5</v>
+        <v>96.32401052740701</v>
       </c>
       <c r="E60">
-        <v>0.002379322359250046</v>
+        <v>0.0004758644718500091</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -5134,13 +5134,13 @@
         <v>161</v>
       </c>
       <c r="C71">
-        <v>36.07787657394729</v>
+        <v>7.21557531478946</v>
       </c>
       <c r="D71">
-        <v>0.5</v>
+        <v>64.94017783310512</v>
       </c>
       <c r="E71">
-        <v>0.002471087436571733</v>
+        <v>0.0004942174873143466</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -5270,13 +5270,13 @@
         <v>169</v>
       </c>
       <c r="C79">
-        <v>62.63764438346929</v>
+        <v>12.52752887669386</v>
       </c>
       <c r="D79">
-        <v>0.5</v>
+        <v>112.7477598902447</v>
       </c>
       <c r="E79">
-        <v>0.002577680838825896</v>
+        <v>0.0005155361677651794</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -5287,13 +5287,13 @@
         <v>170</v>
       </c>
       <c r="C80">
-        <v>49.92664532729352</v>
+        <v>9.985329065458703</v>
       </c>
       <c r="D80">
-        <v>0.5</v>
+        <v>89.86796158912834</v>
       </c>
       <c r="E80">
-        <v>0.004895729096616348</v>
+        <v>0.0009791458193232697</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5304,13 +5304,13 @@
         <v>171</v>
       </c>
       <c r="C81">
-        <v>104.3066017292758</v>
+        <v>20.86132034585515</v>
       </c>
       <c r="D81">
-        <v>0.5</v>
+        <v>187.7518831126964</v>
       </c>
       <c r="E81">
-        <v>0.01030392193314983</v>
+        <v>0.002060784386629967</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -5321,13 +5321,13 @@
         <v>172</v>
       </c>
       <c r="C82">
-        <v>44.48699657137475</v>
+        <v>8.897399314274951</v>
       </c>
       <c r="D82">
-        <v>0.5</v>
+        <v>80.07659382847454</v>
       </c>
       <c r="E82">
-        <v>0.004656861359926175</v>
+        <v>0.0009313722719852351</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -5338,13 +5338,13 @@
         <v>173</v>
       </c>
       <c r="C83">
-        <v>28.25398105411891</v>
+        <v>5.650796210823782</v>
       </c>
       <c r="D83">
-        <v>0.5</v>
+        <v>50.85716589741403</v>
       </c>
       <c r="E83">
-        <v>0.007796352388001907</v>
+        <v>0.001559270477600381</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -5355,13 +5355,13 @@
         <v>174</v>
       </c>
       <c r="C84">
-        <v>39.46756054493127</v>
+        <v>7.893512108986255</v>
       </c>
       <c r="D84">
-        <v>0.5</v>
+        <v>71.04160898087629</v>
       </c>
       <c r="E84">
-        <v>0.002579579120583743</v>
+        <v>0.0005159158241167487</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -5372,13 +5372,13 @@
         <v>175</v>
       </c>
       <c r="C85">
-        <v>44.81886145159304</v>
+        <v>8.963772290318611</v>
       </c>
       <c r="D85">
-        <v>0.5</v>
+        <v>80.67395061286747</v>
       </c>
       <c r="E85">
-        <v>0.002658453137884397</v>
+        <v>0.0005316906275768795</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -5389,13 +5389,13 @@
         <v>176</v>
       </c>
       <c r="C86">
-        <v>39.4085892661138</v>
+        <v>7.881717853222762</v>
       </c>
       <c r="D86">
-        <v>0.5</v>
+        <v>70.93546067900483</v>
       </c>
       <c r="E86">
-        <v>0.006582359990999466</v>
+        <v>0.001316471998199893</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -5406,13 +5406,13 @@
         <v>177</v>
       </c>
       <c r="C87">
-        <v>34.73592150803439</v>
+        <v>6.947184301606877</v>
       </c>
       <c r="D87">
-        <v>0.5</v>
+        <v>62.5246587144619</v>
       </c>
       <c r="E87">
-        <v>0.003486142262950059</v>
+        <v>0.0006972284525900117</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -5423,13 +5423,13 @@
         <v>178</v>
       </c>
       <c r="C88">
-        <v>155.3152587169874</v>
+        <v>31.06305174339749</v>
       </c>
       <c r="D88">
-        <v>0.5</v>
+        <v>279.5674656905774</v>
       </c>
       <c r="E88">
-        <v>0.04054170157060491</v>
+        <v>0.008108340314120983</v>
       </c>
     </row>
   </sheetData>
@@ -5572,13 +5572,13 @@
         <v>98</v>
       </c>
       <c r="C8">
-        <v>9.580941911061908</v>
+        <v>1.916188382212382</v>
       </c>
       <c r="D8">
-        <v>0.75</v>
+        <v>36.40757926203525</v>
       </c>
       <c r="E8">
-        <v>0.0004989034529817698</v>
+        <v>9.978069059635397E-05</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5606,13 +5606,13 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>50.75680206895612</v>
+        <v>10.15136041379122</v>
       </c>
       <c r="D10">
-        <v>0.75</v>
+        <v>192.8758478620333</v>
       </c>
       <c r="E10">
-        <v>0.002277417421319878</v>
+        <v>0.0004554834842639756</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5640,13 +5640,13 @@
         <v>102</v>
       </c>
       <c r="C12">
-        <v>10.93458880830235</v>
+        <v>2.18691776166047</v>
       </c>
       <c r="D12">
-        <v>0.7499999999999999</v>
+        <v>41.55143747154892</v>
       </c>
       <c r="E12">
-        <v>0.001450210717281479</v>
+        <v>0.0002900421434562957</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5657,13 +5657,13 @@
         <v>103</v>
       </c>
       <c r="C13">
-        <v>125.7724442285776</v>
+        <v>25.15448884571552</v>
       </c>
       <c r="D13">
-        <v>0.75</v>
+        <v>477.9352880685949</v>
       </c>
       <c r="E13">
-        <v>0.04542161221689332</v>
+        <v>0.009084322443378664</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5674,13 +5674,13 @@
         <v>104</v>
       </c>
       <c r="C14">
-        <v>20.0267127492161</v>
+        <v>4.00534254984322</v>
       </c>
       <c r="D14">
-        <v>0.75</v>
+        <v>76.10150844702117</v>
       </c>
       <c r="E14">
-        <v>0.002605270293900884</v>
+        <v>0.0005210540587801769</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5691,13 +5691,13 @@
         <v>105</v>
       </c>
       <c r="C15">
-        <v>71.74677795548031</v>
+        <v>14.34935559109606</v>
       </c>
       <c r="D15">
-        <v>0.75</v>
+        <v>272.6377562308252</v>
       </c>
       <c r="E15">
-        <v>0.007556269400261223</v>
+        <v>0.001511253880052245</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5708,13 +5708,13 @@
         <v>106</v>
       </c>
       <c r="C16">
-        <v>16.64194398699575</v>
+        <v>3.32838879739915</v>
       </c>
       <c r="D16">
-        <v>0.75</v>
+        <v>63.23938715058386</v>
       </c>
       <c r="E16">
-        <v>0.000866722774178207</v>
+        <v>0.0001733445548356414</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5759,13 +5759,13 @@
         <v>109</v>
       </c>
       <c r="C19">
-        <v>11.31159759296506</v>
+        <v>2.262319518593012</v>
       </c>
       <c r="D19">
-        <v>0.75</v>
+        <v>42.98407085326722</v>
       </c>
       <c r="E19">
-        <v>0.001858015373351685</v>
+        <v>0.0003716030746703371</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5776,13 +5776,13 @@
         <v>110</v>
       </c>
       <c r="C20">
-        <v>49.79398865270075</v>
+        <v>9.958797730540152</v>
       </c>
       <c r="D20">
-        <v>0.75</v>
+        <v>189.2171568802629</v>
       </c>
       <c r="E20">
-        <v>0.002028020553606515</v>
+        <v>0.000405604110721303</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5793,13 +5793,13 @@
         <v>111</v>
       </c>
       <c r="C21">
-        <v>19.57769627677886</v>
+        <v>3.915539255355773</v>
       </c>
       <c r="D21">
-        <v>0.75</v>
+        <v>74.39524585175968</v>
       </c>
       <c r="E21">
-        <v>0.002247210316434672</v>
+        <v>0.0004494420632869344</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5810,13 +5810,13 @@
         <v>112</v>
       </c>
       <c r="C22">
-        <v>29.94750425862038</v>
+        <v>5.989500851724075</v>
       </c>
       <c r="D22">
-        <v>0.7500000000000001</v>
+        <v>113.8005161827574</v>
       </c>
       <c r="E22">
-        <v>0.002046573105899021</v>
+        <v>0.0004093146211798042</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5827,13 +5827,13 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>12.01925804558936</v>
+        <v>2.403851609117872</v>
       </c>
       <c r="D23">
-        <v>0.75</v>
+        <v>45.67318057323958</v>
       </c>
       <c r="E23">
-        <v>0.002652672267841395</v>
+        <v>0.000530534453568279</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5844,13 +5844,13 @@
         <v>114</v>
       </c>
       <c r="C24">
-        <v>69.66897093226828</v>
+        <v>13.93379418645366</v>
       </c>
       <c r="D24">
-        <v>0.75</v>
+        <v>264.7420895426195</v>
       </c>
       <c r="E24">
-        <v>0.005308921049475598</v>
+        <v>0.00106178420989512</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5861,13 +5861,13 @@
         <v>115</v>
       </c>
       <c r="C25">
-        <v>17.70361043943498</v>
+        <v>3.540722087886996</v>
       </c>
       <c r="D25">
-        <v>0.75</v>
+        <v>67.27371966985292</v>
       </c>
       <c r="E25">
-        <v>0.002089168095283807</v>
+        <v>0.0004178336190567614</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5878,13 +5878,13 @@
         <v>116</v>
       </c>
       <c r="C26">
-        <v>27.82758108667665</v>
+        <v>5.56551621733533</v>
       </c>
       <c r="D26">
-        <v>0.75</v>
+        <v>105.7448081293713</v>
       </c>
       <c r="E26">
-        <v>0.002381682735936036</v>
+        <v>0.0004763365471872073</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5895,13 +5895,13 @@
         <v>117</v>
       </c>
       <c r="C27">
-        <v>15.84906787913787</v>
+        <v>3.169813575827574</v>
       </c>
       <c r="D27">
-        <v>0.75</v>
+        <v>60.2264579407239</v>
       </c>
       <c r="E27">
-        <v>0.002259633287587378</v>
+        <v>0.0004519266575174756</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5912,13 +5912,13 @@
         <v>118</v>
       </c>
       <c r="C28">
-        <v>14.80260576245304</v>
+        <v>2.960521152490608</v>
       </c>
       <c r="D28">
-        <v>0.7499999999999999</v>
+        <v>56.24990189732154</v>
       </c>
       <c r="E28">
-        <v>0.002743255330328583</v>
+        <v>0.0005486510660657167</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5929,13 +5929,13 @@
         <v>119</v>
       </c>
       <c r="C29">
-        <v>150.089861433799</v>
+        <v>30.01797228675981</v>
       </c>
       <c r="D29">
-        <v>0.75</v>
+        <v>570.3414734484363</v>
       </c>
       <c r="E29">
-        <v>0.04539923213363552</v>
+        <v>0.009079846426727104</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5946,13 +5946,13 @@
         <v>120</v>
       </c>
       <c r="C30">
-        <v>28.55809627117059</v>
+        <v>5.711619254234119</v>
       </c>
       <c r="D30">
-        <v>0.75</v>
+        <v>108.5207658304482</v>
       </c>
       <c r="E30">
-        <v>0.001253702808339725</v>
+        <v>0.000250740561667945</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5963,13 +5963,13 @@
         <v>121</v>
       </c>
       <c r="C31">
-        <v>31.77770978414862</v>
+        <v>6.355541956829724</v>
       </c>
       <c r="D31">
-        <v>0.7500000000000001</v>
+        <v>120.7552971797648</v>
       </c>
       <c r="E31">
-        <v>0.006012811690472776</v>
+        <v>0.001202562338094555</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5997,13 +5997,13 @@
         <v>123</v>
       </c>
       <c r="C33">
-        <v>9.643822819922836</v>
+        <v>1.928764563984567</v>
       </c>
       <c r="D33">
-        <v>0.75</v>
+        <v>36.64652671570678</v>
       </c>
       <c r="E33">
-        <v>0.0003704460807407074</v>
+        <v>7.408921614814149E-05</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6014,13 +6014,13 @@
         <v>124</v>
       </c>
       <c r="C34">
-        <v>21.10067744357261</v>
+        <v>4.220135488714521</v>
       </c>
       <c r="D34">
-        <v>0.75</v>
+        <v>80.18257428557591</v>
       </c>
       <c r="E34">
-        <v>0.001924717453577726</v>
+        <v>0.0003849434907155451</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -6269,13 +6269,13 @@
         <v>139</v>
       </c>
       <c r="C49">
-        <v>10.52747014902687</v>
+        <v>2.105494029805374</v>
       </c>
       <c r="D49">
-        <v>0.75</v>
+        <v>40.0043865663021</v>
       </c>
       <c r="E49">
-        <v>0.005555393218483837</v>
+        <v>0.001111078643696767</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -6354,13 +6354,13 @@
         <v>144</v>
       </c>
       <c r="C54">
-        <v>24.44369717772434</v>
+        <v>4.888739435544868</v>
       </c>
       <c r="D54">
-        <v>0.75</v>
+        <v>92.88604927535248</v>
       </c>
       <c r="E54">
-        <v>0.001029858739318489</v>
+        <v>0.0002059717478636978</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -6371,13 +6371,13 @@
         <v>145</v>
       </c>
       <c r="C55">
-        <v>10.77550660695656</v>
+        <v>2.155101321391312</v>
       </c>
       <c r="D55">
-        <v>0.75</v>
+        <v>40.94692510643493</v>
       </c>
       <c r="E55">
-        <v>0.001534753825232383</v>
+        <v>0.0003069507650464766</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -6388,13 +6388,13 @@
         <v>146</v>
       </c>
       <c r="C56">
-        <v>13.04944105957447</v>
+        <v>2.609888211914895</v>
       </c>
       <c r="D56">
-        <v>0.75</v>
+        <v>49.58787602638301</v>
       </c>
       <c r="E56">
-        <v>0.00109511925642619</v>
+        <v>0.0002190238512852379</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -6405,13 +6405,13 @@
         <v>147</v>
       </c>
       <c r="C57">
-        <v>11.32586984660021</v>
+        <v>2.265173969320042</v>
       </c>
       <c r="D57">
-        <v>0.75</v>
+        <v>43.03830541708079</v>
       </c>
       <c r="E57">
-        <v>0.001715780919042601</v>
+        <v>0.0003431561838085202</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -6422,13 +6422,13 @@
         <v>148</v>
       </c>
       <c r="C58">
-        <v>7.055615537826617</v>
+        <v>1.411123107565323</v>
       </c>
       <c r="D58">
-        <v>0.75</v>
+        <v>26.81133904374115</v>
       </c>
       <c r="E58">
-        <v>0.001552390657387595</v>
+        <v>0.0003104781314775189</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -6439,13 +6439,13 @@
         <v>149</v>
       </c>
       <c r="C59">
-        <v>15.19765107994601</v>
+        <v>3.039530215989202</v>
       </c>
       <c r="D59">
-        <v>0.7499999999999999</v>
+        <v>57.75107410379483</v>
       </c>
       <c r="E59">
-        <v>0.0010200450419455</v>
+        <v>0.0002040090083891001</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -6456,13 +6456,13 @@
         <v>150</v>
       </c>
       <c r="C60">
-        <v>26.75666959094639</v>
+        <v>5.351333918189278</v>
       </c>
       <c r="D60">
-        <v>0.75</v>
+        <v>101.6753444455963</v>
       </c>
       <c r="E60">
-        <v>0.001189661179625023</v>
+        <v>0.0002379322359250046</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -6643,13 +6643,13 @@
         <v>161</v>
       </c>
       <c r="C71">
-        <v>18.03893828697365</v>
+        <v>3.60778765739473</v>
       </c>
       <c r="D71">
-        <v>0.75</v>
+        <v>68.54796549049986</v>
       </c>
       <c r="E71">
-        <v>0.001235543718285866</v>
+        <v>0.0002471087436571733</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -6779,13 +6779,13 @@
         <v>169</v>
       </c>
       <c r="C79">
-        <v>31.31882219173464</v>
+        <v>6.26376443834693</v>
       </c>
       <c r="D79">
-        <v>0.75</v>
+        <v>119.0115243285916</v>
       </c>
       <c r="E79">
-        <v>0.001288840419412948</v>
+        <v>0.0002577680838825897</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -6796,13 +6796,13 @@
         <v>170</v>
       </c>
       <c r="C80">
-        <v>24.96332266364676</v>
+        <v>4.992664532729352</v>
       </c>
       <c r="D80">
-        <v>0.75</v>
+        <v>94.86062612185769</v>
       </c>
       <c r="E80">
-        <v>0.002447864548308174</v>
+        <v>0.0004895729096616348</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -6813,13 +6813,13 @@
         <v>171</v>
       </c>
       <c r="C81">
-        <v>52.15330086463788</v>
+        <v>10.43066017292758</v>
       </c>
       <c r="D81">
-        <v>0.75</v>
+        <v>198.1825432856239</v>
       </c>
       <c r="E81">
-        <v>0.005151960966574916</v>
+        <v>0.001030392193314983</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -6830,13 +6830,13 @@
         <v>172</v>
       </c>
       <c r="C82">
-        <v>22.24349828568737</v>
+        <v>4.448699657137476</v>
       </c>
       <c r="D82">
-        <v>0.7500000000000001</v>
+        <v>84.52529348561201</v>
       </c>
       <c r="E82">
-        <v>0.002328430679963087</v>
+        <v>0.0004656861359926175</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -6847,13 +6847,13 @@
         <v>173</v>
       </c>
       <c r="C83">
-        <v>14.12699052705945</v>
+        <v>2.825398105411891</v>
       </c>
       <c r="D83">
-        <v>0.75</v>
+        <v>53.68256400282593</v>
       </c>
       <c r="E83">
-        <v>0.003898176194000953</v>
+        <v>0.0007796352388001907</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -6864,13 +6864,13 @@
         <v>174</v>
       </c>
       <c r="C84">
-        <v>19.73378027246564</v>
+        <v>3.946756054493127</v>
       </c>
       <c r="D84">
-        <v>0.75</v>
+        <v>74.98836503536943</v>
       </c>
       <c r="E84">
-        <v>0.001289789560291872</v>
+        <v>0.0002579579120583744</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -6881,13 +6881,13 @@
         <v>175</v>
       </c>
       <c r="C85">
-        <v>22.40943072579652</v>
+        <v>4.481886145159305</v>
       </c>
       <c r="D85">
-        <v>0.75</v>
+        <v>85.15583675802678</v>
       </c>
       <c r="E85">
-        <v>0.001329226568942198</v>
+        <v>0.0002658453137884397</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -6898,13 +6898,13 @@
         <v>176</v>
       </c>
       <c r="C86">
-        <v>19.7042946330569</v>
+        <v>3.940858926611381</v>
       </c>
       <c r="D86">
-        <v>0.75</v>
+        <v>74.87631960561622</v>
       </c>
       <c r="E86">
-        <v>0.003291179995499733</v>
+        <v>0.0006582359990999467</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -6915,13 +6915,13 @@
         <v>177</v>
       </c>
       <c r="C87">
-        <v>17.36796075401719</v>
+        <v>3.473592150803439</v>
       </c>
       <c r="D87">
-        <v>0.75</v>
+        <v>65.99825086526533</v>
       </c>
       <c r="E87">
-        <v>0.00174307113147503</v>
+        <v>0.0003486142262950059</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -6932,13 +6932,13 @@
         <v>178</v>
       </c>
       <c r="C88">
-        <v>77.65762935849371</v>
+        <v>15.53152587169874</v>
       </c>
       <c r="D88">
-        <v>0.75</v>
+        <v>295.0989915622761</v>
       </c>
       <c r="E88">
-        <v>0.02027085078530245</v>
+        <v>0.004054170157060492</v>
       </c>
     </row>
   </sheetData>
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>38.32376764424763</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>203.0272082758245</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -7152,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>43.73835523320939</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -7169,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>503.0897769143104</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -7186,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>80.1068509968644</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>286.9871118219212</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>66.56777594798301</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>45.24639037186023</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>199.175954610803</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -7305,7 +7305,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>78.31078510711545</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>119.7900170344815</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -7339,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>48.07703218235745</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -7356,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>278.6758837290731</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>70.81444175773991</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -7390,7 +7390,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>111.3103243467066</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -7407,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>63.39627151655148</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>59.21042304981215</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -7441,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>600.3594457351961</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>114.2323850846823</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -7475,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>127.1108391365945</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -7509,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>38.57529127969134</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>84.40270977429043</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -7781,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>42.10988059610748</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -7866,7 +7866,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>97.77478871089734</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>43.10202642782625</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>52.1977642382979</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -7917,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>45.30347938640083</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>28.22246215130647</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>60.79060431978404</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>107.0266783637856</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>72.15575314789459</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>125.2752887669386</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -8308,7 +8308,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>99.85329065458704</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -8325,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>208.6132034585515</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>88.97399314274949</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -8359,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>56.50796210823782</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>78.93512108986255</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -8393,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>89.63772290318609</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>78.8171785322276</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -8427,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>69.47184301606877</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -8444,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>310.6305174339748</v>
       </c>
       <c r="E88">
         <v>0</v>

--- a/resultados/por_vector/V2.xlsx
+++ b/resultados/por_vector/V2.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="V2_0" sheetId="1" r:id="rId1"/>
-    <sheet name="V2_0.25" sheetId="2" r:id="rId2"/>
-    <sheet name="V2_0.5" sheetId="3" r:id="rId3"/>
-    <sheet name="V2_0.75" sheetId="4" r:id="rId4"/>
-    <sheet name="V2_1" sheetId="5" r:id="rId5"/>
+    <sheet name="V2_0%" sheetId="1" r:id="rId1"/>
+    <sheet name="V2_25%" sheetId="2" r:id="rId2"/>
+    <sheet name="V2_50%" sheetId="3" r:id="rId3"/>
+    <sheet name="V2_75%" sheetId="4" r:id="rId4"/>
+    <sheet name="V2_100%" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -29,7 +29,7 @@
     <t>Huella / tCO2e</t>
   </si>
   <si>
-    <t>Reducción / %</t>
+    <t>Reducción / tCO2e</t>
   </si>
   <si>
     <t>Huella/cápita / tCO2e</t>
@@ -943,13 +943,13 @@
         <v>92</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>11.92253070886076</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.003843497971908692</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -960,13 +960,13 @@
         <v>93</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>11.92253070886076</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00301378430456541</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -977,13 +977,13 @@
         <v>94</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>71.53518425316454</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.01067211461333202</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -994,13 +994,13 @@
         <v>95</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>11.92253070886076</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.002510534998707257</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1011,13 +1011,13 @@
         <v>96</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>11.92253070886076</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.003157449869931346</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1045,13 +1045,13 @@
         <v>98</v>
       </c>
       <c r="C8">
-        <v>7.664753528849527</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>30.6590141153981</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0003991227623854159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1079,13 +1079,13 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>40.6054416551649</v>
+        <v>569.3184782278481</v>
       </c>
       <c r="D10">
-        <v>162.4217666206596</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.001821933937055902</v>
+        <v>0.02554486822936457</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1096,13 +1096,13 @@
         <v>101</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>59.43628474683545</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.01955140945619587</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1113,13 +1113,13 @@
         <v>102</v>
       </c>
       <c r="C12">
-        <v>8.747671046641878</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>34.99068418656751</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.001160168573825183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1130,13 +1130,13 @@
         <v>103</v>
       </c>
       <c r="C13">
-        <v>100.6179553828621</v>
+        <v>380.9566025316456</v>
       </c>
       <c r="D13">
-        <v>402.4718215314484</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03633728977351466</v>
+        <v>0.1375791269525625</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1147,13 +1147,13 @@
         <v>104</v>
       </c>
       <c r="C14">
-        <v>16.02137019937288</v>
+        <v>302.6488564556962</v>
       </c>
       <c r="D14">
-        <v>64.08548079749151</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.002084216235120707</v>
+        <v>0.03937151768644415</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1164,13 +1164,13 @@
         <v>105</v>
       </c>
       <c r="C15">
-        <v>57.39742236438425</v>
+        <v>582.0699422848101</v>
       </c>
       <c r="D15">
-        <v>229.589689457537</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.006045015520208979</v>
+        <v>0.06130278486411902</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1181,13 +1181,13 @@
         <v>106</v>
       </c>
       <c r="C16">
-        <v>13.3135551895966</v>
+        <v>75.238929</v>
       </c>
       <c r="D16">
-        <v>53.25422075838641</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0006933782193425655</v>
+        <v>0.003918490130722358</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1198,13 +1198,13 @@
         <v>107</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>8.359881000000001</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.0006518934029943857</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1232,13 +1232,13 @@
         <v>109</v>
       </c>
       <c r="C19">
-        <v>9.049278074372047</v>
+        <v>42.32851139240506</v>
       </c>
       <c r="D19">
-        <v>36.19711229748818</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.001486412298681348</v>
+        <v>0.006952777823982435</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1249,13 +1249,13 @@
         <v>110</v>
       </c>
       <c r="C20">
-        <v>39.83519092216061</v>
+        <v>52.15754890573505</v>
       </c>
       <c r="D20">
-        <v>159.3407636886424</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.001622416442885212</v>
+        <v>0.002124284156955771</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1266,13 +1266,13 @@
         <v>111</v>
       </c>
       <c r="C21">
-        <v>15.66215702142309</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>62.64862808569236</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.001797768253147738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1283,13 +1283,13 @@
         <v>112</v>
       </c>
       <c r="C22">
-        <v>23.9580034068963</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>95.83201362758521</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.001637258484719217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1300,13 +1300,13 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>9.615406436471488</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>38.46162574588596</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.002122137814273116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1317,13 +1317,13 @@
         <v>114</v>
       </c>
       <c r="C24">
-        <v>55.73517674581463</v>
+        <v>64.67443803164558</v>
       </c>
       <c r="D24">
-        <v>222.9407069832585</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.004247136839580479</v>
+        <v>0.004928327214177061</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1334,13 +1334,13 @@
         <v>115</v>
       </c>
       <c r="C25">
-        <v>14.16288835154798</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>56.65155340619193</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.001671334476227046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1351,13 +1351,13 @@
         <v>116</v>
       </c>
       <c r="C26">
-        <v>22.26206486934132</v>
+        <v>29.14846672717635</v>
       </c>
       <c r="D26">
-        <v>89.04825947736528</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0.001905346188748829</v>
+        <v>0.00249473354392129</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1368,13 +1368,13 @@
         <v>117</v>
       </c>
       <c r="C27">
-        <v>12.6792543033103</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>50.71701721324118</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0.001807706630069903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1385,13 +1385,13 @@
         <v>118</v>
       </c>
       <c r="C28">
-        <v>11.84208460996243</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>47.36833843984972</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0.002194604264262867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1402,13 +1402,13 @@
         <v>119</v>
       </c>
       <c r="C29">
-        <v>120.0718891470392</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>480.2875565881569</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.03631938570690842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1419,13 +1419,13 @@
         <v>120</v>
       </c>
       <c r="C30">
-        <v>22.84647701693648</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>91.38590806774587</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.00100296224667178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1436,13 +1436,13 @@
         <v>121</v>
       </c>
       <c r="C31">
-        <v>25.4221678273189</v>
+        <v>237.2160325949367</v>
       </c>
       <c r="D31">
-        <v>101.6886713092756</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0.004810249352378221</v>
+        <v>0.04488477437936361</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1470,13 +1470,13 @@
         <v>123</v>
       </c>
       <c r="C33">
-        <v>7.71505825593827</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>30.86023302375307</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0.000296356864592566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1487,13 +1487,13 @@
         <v>124</v>
       </c>
       <c r="C34">
-        <v>16.88054195485809</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>67.52216781943234</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0.001539773962862181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1504,13 +1504,13 @@
         <v>125</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>192.9474644303798</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.004608471014387594</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1742,13 +1742,13 @@
         <v>139</v>
       </c>
       <c r="C49">
-        <v>8.421976119221497</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>33.68790447688598</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0.00444431457478707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1827,13 +1827,13 @@
         <v>144</v>
       </c>
       <c r="C54">
-        <v>19.55495774217947</v>
+        <v>183.7762869620253</v>
       </c>
       <c r="D54">
-        <v>78.21983096871787</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>0.0008238869914547913</v>
+        <v>0.00774283913890985</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1844,13 +1844,13 @@
         <v>145</v>
       </c>
       <c r="C55">
-        <v>8.62040528556525</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>34.481621142261</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0.001227803060185907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1861,13 +1861,13 @@
         <v>146</v>
       </c>
       <c r="C56">
-        <v>10.43955284765958</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>41.75821139063832</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>0.0008760954051409517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1878,13 +1878,13 @@
         <v>147</v>
       </c>
       <c r="C57">
-        <v>9.060695877280168</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>36.24278350912066</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>0.001372624735234081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1895,13 +1895,13 @@
         <v>148</v>
       </c>
       <c r="C58">
-        <v>5.644492430261294</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>22.57796972104518</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>0.001241912525910076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1912,13 +1912,13 @@
         <v>149</v>
       </c>
       <c r="C59">
-        <v>12.15812086395681</v>
+        <v>23.80978765822785</v>
       </c>
       <c r="D59">
-        <v>48.63248345582723</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>0.0008160360335564003</v>
+        <v>0.001598079579718629</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1929,13 +1929,13 @@
         <v>150</v>
       </c>
       <c r="C60">
-        <v>21.40533567275711</v>
+        <v>214.2880889240506</v>
       </c>
       <c r="D60">
-        <v>85.62134269102845</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>0.0009517289437000183</v>
+        <v>0.009527726153752639</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1946,13 +1946,13 @@
         <v>151</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>16.22592936708861</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.001410337189664373</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2082,13 +2082,13 @@
         <v>159</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>6.525645506329113</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.0006724003612909957</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2116,13 +2116,13 @@
         <v>161</v>
       </c>
       <c r="C71">
-        <v>14.43115062957892</v>
+        <v>157.6737049367089</v>
       </c>
       <c r="D71">
-        <v>57.72460251831566</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>0.0009884349746286931</v>
+        <v>0.01079956883128143</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2167,13 +2167,13 @@
         <v>164</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>113.4051367721519</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.004368625015299199</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2252,13 +2252,13 @@
         <v>169</v>
       </c>
       <c r="C79">
-        <v>25.05505775338772</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>100.2202310135509</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>0.001031072335530359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2269,13 +2269,13 @@
         <v>170</v>
       </c>
       <c r="C80">
-        <v>19.97065813091741</v>
+        <v>93.65183145569618</v>
       </c>
       <c r="D80">
-        <v>79.88263252366963</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>0.001958291638646539</v>
+        <v>0.009183352760903724</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2286,13 +2286,13 @@
         <v>171</v>
       </c>
       <c r="C81">
-        <v>41.7226406917103</v>
+        <v>59.59501666455697</v>
       </c>
       <c r="D81">
-        <v>166.8905627668412</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>0.004121568773259933</v>
+        <v>0.005887090453873058</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2303,13 +2303,13 @@
         <v>172</v>
       </c>
       <c r="C82">
-        <v>17.7947986285499</v>
+        <v>268.1775749905063</v>
       </c>
       <c r="D82">
-        <v>71.17919451419959</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>0.00186274454397047</v>
+        <v>0.02807260284627932</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2320,13 +2320,13 @@
         <v>173</v>
       </c>
       <c r="C83">
-        <v>11.30159242164756</v>
+        <v>268.1775749905063</v>
       </c>
       <c r="D83">
-        <v>45.20636968659026</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>0.003118540955200763</v>
+        <v>0.07400043460002935</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2337,13 +2337,13 @@
         <v>174</v>
       </c>
       <c r="C84">
-        <v>15.78702421797251</v>
+        <v>256.792969113924</v>
       </c>
       <c r="D84">
-        <v>63.14809687189004</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>0.001031831648233497</v>
+        <v>0.01678385419045255</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2354,13 +2354,13 @@
         <v>175</v>
       </c>
       <c r="C85">
-        <v>17.92754458063722</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>71.71017832254887</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>0.001063381255153759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2371,13 +2371,13 @@
         <v>176</v>
       </c>
       <c r="C86">
-        <v>15.76343570644552</v>
+        <v>385.1894536708861</v>
       </c>
       <c r="D86">
-        <v>63.05374282578208</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>0.002632943996399787</v>
+        <v>0.06433764049956339</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2388,13 +2388,13 @@
         <v>177</v>
       </c>
       <c r="C87">
-        <v>13.89436860321375</v>
+        <v>126.4564277848101</v>
       </c>
       <c r="D87">
-        <v>55.57747441285502</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>0.001394456905180023</v>
+        <v>0.01269133157214072</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2405,13 +2405,13 @@
         <v>178</v>
       </c>
       <c r="C88">
-        <v>62.12610348679497</v>
+        <v>126.4564277848101</v>
       </c>
       <c r="D88">
-        <v>248.5044139471798</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>0.01621668062824197</v>
+        <v>0.03300872560292616</v>
       </c>
     </row>
   </sheetData>
@@ -2452,13 +2452,13 @@
         <v>92</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>9.865894161582281</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2.056636547278481</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.003180494571754443</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2469,13 +2469,13 @@
         <v>93</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>9.865894161582281</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2.056636547278481</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.002493906512027877</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2486,13 +2486,13 @@
         <v>94</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>59.19536496949366</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>12.33981928367088</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.008831174842532248</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2503,13 +2503,13 @@
         <v>95</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>9.865894161582281</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.056636547278481</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.002077467711430255</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2520,13 +2520,13 @@
         <v>96</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>9.865894161582281</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.056636547278481</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.002612789767368189</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2554,13 +2554,13 @@
         <v>98</v>
       </c>
       <c r="C8">
-        <v>5.748565146637145</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>32.57520249761048</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0002993420717890619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2588,13 +2588,13 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>30.45408124137367</v>
+        <v>471.1110407335443</v>
       </c>
       <c r="D10">
-        <v>172.5731270344508</v>
+        <v>98.2074374943038</v>
       </c>
       <c r="E10">
-        <v>0.001366450452791927</v>
+        <v>0.02113837845979918</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2605,13 +2605,13 @@
         <v>101</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>49.18352562800634</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>10.25275911882911</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.01617879132500209</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2622,13 +2622,13 @@
         <v>102</v>
       </c>
       <c r="C12">
-        <v>6.560753284981409</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>37.17760194822798</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0008701264303688872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2639,13 +2639,13 @@
         <v>103</v>
       </c>
       <c r="C13">
-        <v>75.46346653714656</v>
+        <v>315.2415885949367</v>
       </c>
       <c r="D13">
-        <v>427.6263103771639</v>
+        <v>65.71501393670883</v>
       </c>
       <c r="E13">
-        <v>0.02725296733013599</v>
+        <v>0.1138467275532455</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2656,13 +2656,13 @@
         <v>104</v>
       </c>
       <c r="C14">
-        <v>12.01602764952966</v>
+        <v>250.4419287170886</v>
       </c>
       <c r="D14">
-        <v>68.09082334733473</v>
+        <v>52.20692773860759</v>
       </c>
       <c r="E14">
-        <v>0.001563162176340531</v>
+        <v>0.03257993088553254</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2673,13 +2673,13 @@
         <v>105</v>
       </c>
       <c r="C15">
-        <v>43.04806677328819</v>
+        <v>481.6628772406804</v>
       </c>
       <c r="D15">
-        <v>243.9390450486331</v>
+        <v>100.4070650441297</v>
       </c>
       <c r="E15">
-        <v>0.004533761640156734</v>
+        <v>0.05072805447505849</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2690,13 +2690,13 @@
         <v>106</v>
       </c>
       <c r="C16">
-        <v>9.985166392197451</v>
+        <v>62.2602137475</v>
       </c>
       <c r="D16">
-        <v>56.58260955578556</v>
+        <v>12.9787152525</v>
       </c>
       <c r="E16">
-        <v>0.0005200336645069241</v>
+        <v>0.003242550583172752</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2707,13 +2707,13 @@
         <v>107</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>6.917801527500002</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1.4420794725</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.0005394417909778542</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2741,13 +2741,13 @@
         <v>109</v>
       </c>
       <c r="C19">
-        <v>6.786958555779035</v>
+        <v>35.02684317721519</v>
       </c>
       <c r="D19">
-        <v>38.45943181608119</v>
+        <v>7.301668215189871</v>
       </c>
       <c r="E19">
-        <v>0.001114809224011011</v>
+        <v>0.005753423649345465</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2758,13 +2758,13 @@
         <v>110</v>
       </c>
       <c r="C20">
-        <v>29.87639319162045</v>
+        <v>43.16037171949576</v>
       </c>
       <c r="D20">
-        <v>169.2995614191826</v>
+        <v>8.997177186239291</v>
       </c>
       <c r="E20">
-        <v>0.001216812332163909</v>
+        <v>0.001757845139880901</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2775,13 +2775,13 @@
         <v>111</v>
       </c>
       <c r="C21">
-        <v>11.74661776606732</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>66.56416734104813</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.001348326189860803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2792,13 +2792,13 @@
         <v>112</v>
       </c>
       <c r="C22">
-        <v>17.96850255517223</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>101.8215144793093</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.001227943863539413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2809,13 +2809,13 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>7.211554827353617</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>40.86547735500383</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.001591603360704837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2826,13 +2826,13 @@
         <v>114</v>
       </c>
       <c r="C24">
-        <v>41.80138255936097</v>
+        <v>53.51809747118672</v>
       </c>
       <c r="D24">
-        <v>236.8745011697121</v>
+        <v>11.15634056045886</v>
       </c>
       <c r="E24">
-        <v>0.003185352629685359</v>
+        <v>0.004078190769731519</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2843,13 +2843,13 @@
         <v>115</v>
       </c>
       <c r="C25">
-        <v>10.62216626366099</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>60.19227549407893</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.001253500857170284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2860,13 +2860,13 @@
         <v>116</v>
       </c>
       <c r="C26">
-        <v>16.69654865200599</v>
+        <v>24.12035621673843</v>
       </c>
       <c r="D26">
-        <v>94.61377569470061</v>
+        <v>5.028110510437919</v>
       </c>
       <c r="E26">
-        <v>0.001429009641561622</v>
+        <v>0.002064392007594867</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2877,13 +2877,13 @@
         <v>117</v>
       </c>
       <c r="C27">
-        <v>9.509440727482721</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>53.88683078906876</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0.001355779972552427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2894,13 +2894,13 @@
         <v>118</v>
       </c>
       <c r="C28">
-        <v>8.881563457471824</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>50.32885959234032</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0.00164595319819715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2911,13 +2911,13 @@
         <v>119</v>
       </c>
       <c r="C29">
-        <v>90.05391686027943</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>510.3055288749167</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.02723953928018132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2928,13 +2928,13 @@
         <v>120</v>
       </c>
       <c r="C30">
-        <v>17.13485776270236</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>97.09752732198</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.000752221685003835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2945,13 +2945,13 @@
         <v>121</v>
       </c>
       <c r="C31">
-        <v>19.06662587048917</v>
+        <v>196.2962669723101</v>
       </c>
       <c r="D31">
-        <v>108.0442132661053</v>
+        <v>40.91976562262658</v>
       </c>
       <c r="E31">
-        <v>0.003607687014283665</v>
+        <v>0.03714215079892339</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2979,13 +2979,13 @@
         <v>123</v>
       </c>
       <c r="C33">
-        <v>5.786293691953703</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>32.78899758773764</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0.0002222676484444245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2996,13 +2996,13 @@
         <v>124</v>
       </c>
       <c r="C34">
-        <v>12.66040646614356</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>71.74230330814686</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0.001154830472146636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3013,13 +3013,13 @@
         <v>125</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>159.6640268161393</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>33.28343761424051</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.003813509764405734</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3251,13 +3251,13 @@
         <v>139</v>
       </c>
       <c r="C49">
-        <v>6.316482089416122</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>35.79339850669136</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0.003333235931090302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3336,13 +3336,13 @@
         <v>144</v>
       </c>
       <c r="C54">
-        <v>14.6662183066346</v>
+        <v>152.0748774610759</v>
       </c>
       <c r="D54">
-        <v>83.10857040426274</v>
+        <v>31.70140950094935</v>
       </c>
       <c r="E54">
-        <v>0.0006179152435910934</v>
+        <v>0.006407199387447902</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3353,13 +3353,13 @@
         <v>145</v>
       </c>
       <c r="C55">
-        <v>6.465303964173938</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>36.6367224636523</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0.0009208522951394299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3370,13 +3370,13 @@
         <v>146</v>
       </c>
       <c r="C56">
-        <v>7.829664635744686</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>44.36809960255322</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>0.0006570715538557139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3387,13 +3387,13 @@
         <v>147</v>
       </c>
       <c r="C57">
-        <v>6.795521907960126</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>38.5079574784407</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>0.001029468551425561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3404,13 +3404,13 @@
         <v>148</v>
       </c>
       <c r="C58">
-        <v>4.23336932269597</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>23.9890928286105</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>0.0009314343944325567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3421,13 +3421,13 @@
         <v>149</v>
       </c>
       <c r="C59">
-        <v>9.118590647967606</v>
+        <v>19.70259928718355</v>
       </c>
       <c r="D59">
-        <v>51.67201367181643</v>
+        <v>4.107188371044302</v>
       </c>
       <c r="E59">
-        <v>0.0006120270251673002</v>
+        <v>0.001322410852217165</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3438,13 +3438,13 @@
         <v>150</v>
       </c>
       <c r="C60">
-        <v>16.05400175456784</v>
+        <v>177.3233935846519</v>
       </c>
       <c r="D60">
-        <v>90.97267660921773</v>
+        <v>36.96469533939873</v>
       </c>
       <c r="E60">
-        <v>0.0007137967077750138</v>
+        <v>0.007884193392230308</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3455,13 +3455,13 @@
         <v>151</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>13.42695655126582</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>2.798972815822784</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.001167054024447268</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3591,13 +3591,13 @@
         <v>159</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>5.399971656487341</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1.125673849841772</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.0005564112989682989</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3625,13 +3625,13 @@
         <v>161</v>
       </c>
       <c r="C71">
-        <v>10.82336297218419</v>
+        <v>130.4749908351266</v>
       </c>
       <c r="D71">
-        <v>61.3323901757104</v>
+        <v>27.19871410158228</v>
       </c>
       <c r="E71">
-        <v>0.0007413262309715197</v>
+        <v>0.008936643207885384</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3676,13 +3676,13 @@
         <v>164</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>93.8427506789557</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>19.5623860931962</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.003615037200160087</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3761,13 +3761,13 @@
         <v>169</v>
       </c>
       <c r="C79">
-        <v>18.79129331504079</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>106.4839954518978</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>0.0007733042516477691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3778,13 +3778,13 @@
         <v>170</v>
       </c>
       <c r="C80">
-        <v>14.97799359818806</v>
+        <v>77.4968905295886</v>
       </c>
       <c r="D80">
-        <v>84.87529705639898</v>
+        <v>16.15494092610759</v>
       </c>
       <c r="E80">
-        <v>0.001468718728984904</v>
+        <v>0.007599224409647833</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3795,13 +3795,13 @@
         <v>171</v>
       </c>
       <c r="C81">
-        <v>31.29198051878273</v>
+        <v>49.31487628992089</v>
       </c>
       <c r="D81">
-        <v>177.3212229397688</v>
+        <v>10.28014037463608</v>
       </c>
       <c r="E81">
-        <v>0.00309117657994495</v>
+        <v>0.004871567350579955</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3812,13 +3812,13 @@
         <v>172</v>
       </c>
       <c r="C82">
-        <v>13.34609897141243</v>
+        <v>221.916943304644</v>
       </c>
       <c r="D82">
-        <v>75.62789417133706</v>
+        <v>46.26063168586234</v>
       </c>
       <c r="E82">
-        <v>0.001397058407977853</v>
+        <v>0.02323007885529614</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3829,13 +3829,13 @@
         <v>173</v>
       </c>
       <c r="C83">
-        <v>8.476194316235674</v>
+        <v>221.916943304644</v>
       </c>
       <c r="D83">
-        <v>48.03176779200214</v>
+        <v>46.26063168586234</v>
       </c>
       <c r="E83">
-        <v>0.002338905716400572</v>
+        <v>0.06123535963152429</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3846,13 +3846,13 @@
         <v>174</v>
       </c>
       <c r="C84">
-        <v>11.84026816347938</v>
+        <v>212.4961819417721</v>
       </c>
       <c r="D84">
-        <v>67.09485292638317</v>
+        <v>44.29678717215188</v>
       </c>
       <c r="E84">
-        <v>0.000773873736175123</v>
+        <v>0.01388863934259949</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3863,13 +3863,13 @@
         <v>175</v>
       </c>
       <c r="C85">
-        <v>13.44565843547791</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>76.19206446770818</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>0.0007975359413653191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3880,13 +3880,13 @@
         <v>176</v>
       </c>
       <c r="C86">
-        <v>11.82257677983414</v>
+        <v>318.7442729126582</v>
       </c>
       <c r="D86">
-        <v>66.99460175239346</v>
+        <v>66.44518075822782</v>
       </c>
       <c r="E86">
-        <v>0.00197470799729984</v>
+        <v>0.05323939751338871</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3897,13 +3897,13 @@
         <v>177</v>
       </c>
       <c r="C87">
-        <v>10.42077645241032</v>
+        <v>104.6426939919304</v>
       </c>
       <c r="D87">
-        <v>59.05106656365846</v>
+        <v>21.81373379287975</v>
       </c>
       <c r="E87">
-        <v>0.001045842678885018</v>
+        <v>0.01050207687594644</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3914,13 +3914,13 @@
         <v>178</v>
       </c>
       <c r="C88">
-        <v>46.59457761509623</v>
+        <v>104.6426939919304</v>
       </c>
       <c r="D88">
-        <v>264.0359398188786</v>
+        <v>21.81373379287975</v>
       </c>
       <c r="E88">
-        <v>0.01216251047118148</v>
+        <v>0.0273147204364214</v>
       </c>
     </row>
   </sheetData>
@@ -3961,13 +3961,13 @@
         <v>92</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>7.809257614303799</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.113273094556963</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.002517491171600193</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3978,13 +3978,13 @@
         <v>93</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>7.809257614303799</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.113273094556963</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.001974028719490344</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3995,13 +3995,13 @@
         <v>94</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>46.85554568582278</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>24.67963856734177</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.006990235071732474</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4012,13 +4012,13 @@
         <v>95</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>7.809257614303799</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>4.113273094556963</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.001644400424153253</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4029,13 +4029,13 @@
         <v>96</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>7.809257614303799</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>4.113273094556963</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.002068129664805031</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4063,13 +4063,13 @@
         <v>98</v>
       </c>
       <c r="C8">
-        <v>3.832376764424763</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>34.49139087982287</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0001995613811927079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4097,13 +4097,13 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>20.30272082758245</v>
+        <v>372.9036032392405</v>
       </c>
       <c r="D10">
-        <v>182.724487448242</v>
+        <v>196.4148749886076</v>
       </c>
       <c r="E10">
-        <v>0.0009109669685279511</v>
+        <v>0.01673188869023379</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4114,13 +4114,13 @@
         <v>101</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>38.93076650917722</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>20.50551823765823</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.01280617319380829</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4131,13 +4131,13 @@
         <v>102</v>
       </c>
       <c r="C12">
-        <v>4.373835523320939</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>39.36451970988845</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0005800842869125914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4148,13 +4148,13 @@
         <v>103</v>
       </c>
       <c r="C13">
-        <v>50.30897769143105</v>
+        <v>249.5265746582278</v>
       </c>
       <c r="D13">
-        <v>452.7807992228794</v>
+        <v>131.4300278734177</v>
       </c>
       <c r="E13">
-        <v>0.01816864488675733</v>
+        <v>0.09011432815392843</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4165,13 +4165,13 @@
         <v>104</v>
       </c>
       <c r="C14">
-        <v>8.010685099686439</v>
+        <v>198.235000978481</v>
       </c>
       <c r="D14">
-        <v>72.09616589717795</v>
+        <v>104.4138554772152</v>
       </c>
       <c r="E14">
-        <v>0.001042108117560354</v>
+        <v>0.02578834408462092</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4182,13 +4182,13 @@
         <v>105</v>
       </c>
       <c r="C15">
-        <v>28.69871118219213</v>
+        <v>381.2558121965506</v>
       </c>
       <c r="D15">
-        <v>258.2884006397291</v>
+        <v>200.8141300882594</v>
       </c>
       <c r="E15">
-        <v>0.00302250776010449</v>
+        <v>0.04015332408599796</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4199,13 +4199,13 @@
         <v>106</v>
       </c>
       <c r="C16">
-        <v>6.6567775947983</v>
+        <v>49.281498495</v>
       </c>
       <c r="D16">
-        <v>59.91099835318471</v>
+        <v>25.957430505</v>
       </c>
       <c r="E16">
-        <v>0.0003466891096712828</v>
+        <v>0.002566611035623145</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4216,13 +4216,13 @@
         <v>107</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>5.475722055000001</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2.884158945</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.0004269901789613226</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4250,13 +4250,13 @@
         <v>109</v>
       </c>
       <c r="C19">
-        <v>4.524639037186024</v>
+        <v>27.72517496202532</v>
       </c>
       <c r="D19">
-        <v>40.72175133467421</v>
+        <v>14.60333643037974</v>
       </c>
       <c r="E19">
-        <v>0.0007432061493406741</v>
+        <v>0.004554069474708495</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4267,13 +4267,13 @@
         <v>110</v>
       </c>
       <c r="C20">
-        <v>19.9175954610803</v>
+        <v>34.16319453325646</v>
       </c>
       <c r="D20">
-        <v>179.2583591497227</v>
+        <v>17.99435437247859</v>
       </c>
       <c r="E20">
-        <v>0.0008112082214426059</v>
+        <v>0.00139140612280603</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4284,13 +4284,13 @@
         <v>111</v>
       </c>
       <c r="C21">
-        <v>7.831078510711546</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>70.4797065964039</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0008988841265738689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4301,13 +4301,13 @@
         <v>112</v>
       </c>
       <c r="C22">
-        <v>11.97900170344815</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>107.8110153310334</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0008186292423596084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4318,13 +4318,13 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>4.807703218235744</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>43.2693289641217</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.001061068907136558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4335,13 +4335,13 @@
         <v>114</v>
       </c>
       <c r="C24">
-        <v>27.86758837290732</v>
+        <v>42.36175691072786</v>
       </c>
       <c r="D24">
-        <v>250.8082953561658</v>
+        <v>22.31268112091772</v>
       </c>
       <c r="E24">
-        <v>0.00212356841979024</v>
+        <v>0.003228054325285975</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4352,13 +4352,13 @@
         <v>115</v>
       </c>
       <c r="C25">
-        <v>7.081444175773992</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>63.73299758196592</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0008356672381135228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4369,13 +4369,13 @@
         <v>116</v>
       </c>
       <c r="C26">
-        <v>11.13103243467066</v>
+        <v>19.09224570630051</v>
       </c>
       <c r="D26">
-        <v>100.1792919120359</v>
+        <v>10.05622102087584</v>
       </c>
       <c r="E26">
-        <v>0.0009526730943744146</v>
+        <v>0.001634050471268445</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4386,13 +4386,13 @@
         <v>117</v>
       </c>
       <c r="C27">
-        <v>6.339627151655148</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>57.05664436489633</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0.0009038533150349513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4403,13 +4403,13 @@
         <v>118</v>
       </c>
       <c r="C28">
-        <v>5.921042304981215</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>53.28938074483094</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0.001097302132131433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4420,13 +4420,13 @@
         <v>119</v>
       </c>
       <c r="C29">
-        <v>60.03594457351961</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>540.3235011616765</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.01815969285345421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4437,13 +4437,13 @@
         <v>120</v>
       </c>
       <c r="C30">
-        <v>11.42323850846824</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>102.8091465762141</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.00050148112333589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4454,13 +4454,13 @@
         <v>121</v>
       </c>
       <c r="C31">
-        <v>12.71108391365945</v>
+        <v>155.3765013496836</v>
       </c>
       <c r="D31">
-        <v>114.399755222935</v>
+        <v>81.83953124525314</v>
       </c>
       <c r="E31">
-        <v>0.002405124676189111</v>
+        <v>0.02939952721848317</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4488,13 +4488,13 @@
         <v>123</v>
       </c>
       <c r="C33">
-        <v>3.857529127969135</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>34.71776215172221</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0.000148178432296283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4505,13 +4505,13 @@
         <v>124</v>
       </c>
       <c r="C34">
-        <v>8.440270977429043</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>75.96243879686139</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0.0007698869814310903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4522,13 +4522,13 @@
         <v>125</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>126.3805892018988</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>66.56687522848101</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.003018548514423874</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4760,13 +4760,13 @@
         <v>139</v>
       </c>
       <c r="C49">
-        <v>4.210988059610749</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>37.89889253649673</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0.002222157287393535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4845,13 +4845,13 @@
         <v>144</v>
       </c>
       <c r="C54">
-        <v>9.777478871089736</v>
+        <v>120.3734679601266</v>
       </c>
       <c r="D54">
-        <v>87.9973098398076</v>
+        <v>63.40281900189872</v>
       </c>
       <c r="E54">
-        <v>0.0004119434957273957</v>
+        <v>0.005071559635985952</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4862,13 +4862,13 @@
         <v>145</v>
       </c>
       <c r="C55">
-        <v>4.310202642782625</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>38.79182378504362</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0.0006139015300929533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4879,13 +4879,13 @@
         <v>146</v>
       </c>
       <c r="C56">
-        <v>5.21977642382979</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>46.97798781446811</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>0.0004380477025704759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4896,13 +4896,13 @@
         <v>147</v>
       </c>
       <c r="C57">
-        <v>4.530347938640084</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>40.77313144776075</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>0.0006863123676170404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4913,13 +4913,13 @@
         <v>148</v>
       </c>
       <c r="C58">
-        <v>2.822246215130647</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>25.40021593617582</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>0.0006209562629550378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4930,13 +4930,13 @@
         <v>149</v>
       </c>
       <c r="C59">
-        <v>6.079060431978404</v>
+        <v>15.59541091613924</v>
       </c>
       <c r="D59">
-        <v>54.71154388780563</v>
+        <v>8.214376742088607</v>
       </c>
       <c r="E59">
-        <v>0.0004080180167782001</v>
+        <v>0.001046742124715702</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4947,13 +4947,13 @@
         <v>150</v>
       </c>
       <c r="C60">
-        <v>10.70266783637856</v>
+        <v>140.3586982452532</v>
       </c>
       <c r="D60">
-        <v>96.32401052740701</v>
+        <v>73.92939067879746</v>
       </c>
       <c r="E60">
-        <v>0.0004758644718500091</v>
+        <v>0.006240660630707979</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4964,13 +4964,13 @@
         <v>151</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>10.62798373544304</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>5.597945631645569</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.0009237708592301641</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -5100,13 +5100,13 @@
         <v>159</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>4.274297806645569</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>2.251347699683544</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.0004404222366456021</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -5134,13 +5134,13 @@
         <v>161</v>
       </c>
       <c r="C71">
-        <v>7.21557531478946</v>
+        <v>103.2762767335443</v>
       </c>
       <c r="D71">
-        <v>64.94017783310512</v>
+        <v>54.39742820316457</v>
       </c>
       <c r="E71">
-        <v>0.0004942174873143466</v>
+        <v>0.007073717584489336</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -5185,13 +5185,13 @@
         <v>164</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>74.28036458575949</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>39.12477218639241</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.002861449385020975</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -5270,13 +5270,13 @@
         <v>169</v>
       </c>
       <c r="C79">
-        <v>12.52752887669386</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>112.7477598902447</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>0.0005155361677651794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -5287,13 +5287,13 @@
         <v>170</v>
       </c>
       <c r="C80">
-        <v>9.985329065458703</v>
+        <v>61.34194960348101</v>
       </c>
       <c r="D80">
-        <v>89.86796158912834</v>
+        <v>32.30988185221518</v>
       </c>
       <c r="E80">
-        <v>0.0009791458193232697</v>
+        <v>0.00601509605839194</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5304,13 +5304,13 @@
         <v>171</v>
       </c>
       <c r="C81">
-        <v>20.86132034585515</v>
+        <v>39.03473591528481</v>
       </c>
       <c r="D81">
-        <v>187.7518831126964</v>
+        <v>20.56028074927215</v>
       </c>
       <c r="E81">
-        <v>0.002060784386629967</v>
+        <v>0.003856044247286853</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -5321,13 +5321,13 @@
         <v>172</v>
       </c>
       <c r="C82">
-        <v>8.897399314274951</v>
+        <v>175.6563116187817</v>
       </c>
       <c r="D82">
-        <v>80.07659382847454</v>
+        <v>92.52126337172467</v>
       </c>
       <c r="E82">
-        <v>0.0009313722719852351</v>
+        <v>0.01838755486431295</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -5338,13 +5338,13 @@
         <v>173</v>
       </c>
       <c r="C83">
-        <v>5.650796210823782</v>
+        <v>175.6563116187817</v>
       </c>
       <c r="D83">
-        <v>50.85716589741403</v>
+        <v>92.52126337172467</v>
       </c>
       <c r="E83">
-        <v>0.001559270477600381</v>
+        <v>0.04847028466301923</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -5355,13 +5355,13 @@
         <v>174</v>
       </c>
       <c r="C84">
-        <v>7.893512108986255</v>
+        <v>168.1993947696203</v>
       </c>
       <c r="D84">
-        <v>71.04160898087629</v>
+        <v>88.59357434430376</v>
       </c>
       <c r="E84">
-        <v>0.0005159158241167487</v>
+        <v>0.01099342449474642</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -5372,13 +5372,13 @@
         <v>175</v>
       </c>
       <c r="C85">
-        <v>8.963772290318611</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>80.67395061286747</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>0.0005316906275768795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -5389,13 +5389,13 @@
         <v>176</v>
       </c>
       <c r="C86">
-        <v>7.881717853222762</v>
+        <v>252.2990921544304</v>
       </c>
       <c r="D86">
-        <v>70.93546067900483</v>
+        <v>132.8903615164557</v>
       </c>
       <c r="E86">
-        <v>0.001316471998199893</v>
+        <v>0.04214115452721403</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -5406,13 +5406,13 @@
         <v>177</v>
       </c>
       <c r="C87">
-        <v>6.947184301606877</v>
+        <v>82.82896019905063</v>
       </c>
       <c r="D87">
-        <v>62.5246587144619</v>
+        <v>43.62746758575949</v>
       </c>
       <c r="E87">
-        <v>0.0006972284525900117</v>
+        <v>0.008312822179752171</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -5423,13 +5423,13 @@
         <v>178</v>
       </c>
       <c r="C88">
-        <v>31.06305174339749</v>
+        <v>82.82896019905063</v>
       </c>
       <c r="D88">
-        <v>279.5674656905774</v>
+        <v>43.62746758575949</v>
       </c>
       <c r="E88">
-        <v>0.008108340314120983</v>
+        <v>0.02162071526991663</v>
       </c>
     </row>
   </sheetData>
@@ -5470,13 +5470,13 @@
         <v>92</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>5.752621067025318</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>6.169909641835444</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.001854487771445944</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5487,13 +5487,13 @@
         <v>93</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>5.752621067025318</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>6.169909641835444</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00145415092695281</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5504,13 +5504,13 @@
         <v>94</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>34.5157264021519</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>37.01945785101265</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.005149295300932701</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5521,13 +5521,13 @@
         <v>95</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5.752621067025318</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>6.169909641835444</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.001211333136876251</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5538,13 +5538,13 @@
         <v>96</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>5.752621067025318</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>6.169909641835444</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.001523469562241875</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5572,13 +5572,13 @@
         <v>98</v>
       </c>
       <c r="C8">
-        <v>1.916188382212382</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>36.40757926203525</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>9.978069059635397E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5606,13 +5606,13 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>10.15136041379122</v>
+        <v>274.6961657449368</v>
       </c>
       <c r="D10">
-        <v>192.8758478620333</v>
+        <v>294.6223124829114</v>
       </c>
       <c r="E10">
-        <v>0.0004554834842639756</v>
+        <v>0.01232539892066841</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5623,13 +5623,13 @@
         <v>101</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>28.6780073903481</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>30.75827735648734</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.009433555062614507</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5640,13 +5640,13 @@
         <v>102</v>
       </c>
       <c r="C12">
-        <v>2.18691776166047</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>41.55143747154892</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0002900421434562957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5657,13 +5657,13 @@
         <v>103</v>
       </c>
       <c r="C13">
-        <v>25.15448884571552</v>
+        <v>183.811560721519</v>
       </c>
       <c r="D13">
-        <v>477.9352880685949</v>
+        <v>197.1450418101266</v>
       </c>
       <c r="E13">
-        <v>0.009084322443378664</v>
+        <v>0.06638192875461141</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5674,13 +5674,13 @@
         <v>104</v>
       </c>
       <c r="C14">
-        <v>4.00534254984322</v>
+        <v>146.0280732398734</v>
       </c>
       <c r="D14">
-        <v>76.10150844702117</v>
+        <v>156.6207832158228</v>
       </c>
       <c r="E14">
-        <v>0.0005210540587801769</v>
+        <v>0.01899675728370931</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5691,13 +5691,13 @@
         <v>105</v>
       </c>
       <c r="C15">
-        <v>14.34935559109606</v>
+        <v>280.8487471524209</v>
       </c>
       <c r="D15">
-        <v>272.6377562308252</v>
+        <v>301.2211951323891</v>
       </c>
       <c r="E15">
-        <v>0.001511253880052245</v>
+        <v>0.02957859369693743</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5708,13 +5708,13 @@
         <v>106</v>
       </c>
       <c r="C16">
-        <v>3.32838879739915</v>
+        <v>36.3027832425</v>
       </c>
       <c r="D16">
-        <v>63.23938715058386</v>
+        <v>38.9361457575</v>
       </c>
       <c r="E16">
-        <v>0.0001733445548356414</v>
+        <v>0.001890671488073538</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5725,13 +5725,13 @@
         <v>107</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>4.033642582500001</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>4.326238417500001</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.0003145385669447911</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5759,13 +5759,13 @@
         <v>109</v>
       </c>
       <c r="C19">
-        <v>2.262319518593012</v>
+        <v>20.42350674683544</v>
       </c>
       <c r="D19">
-        <v>42.98407085326722</v>
+        <v>21.90500464556962</v>
       </c>
       <c r="E19">
-        <v>0.0003716030746703371</v>
+        <v>0.003354715300071525</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5776,13 +5776,13 @@
         <v>110</v>
       </c>
       <c r="C20">
-        <v>9.958797730540152</v>
+        <v>25.16601734701716</v>
       </c>
       <c r="D20">
-        <v>189.2171568802629</v>
+        <v>26.99153155871789</v>
       </c>
       <c r="E20">
-        <v>0.000405604110721303</v>
+        <v>0.00102496710573116</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5793,13 +5793,13 @@
         <v>111</v>
       </c>
       <c r="C21">
-        <v>3.915539255355773</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>74.39524585175968</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0004494420632869344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5810,13 +5810,13 @@
         <v>112</v>
       </c>
       <c r="C22">
-        <v>5.989500851724075</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>113.8005161827574</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0004093146211798042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5827,13 +5827,13 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>2.403851609117872</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>45.67318057323958</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.000530534453568279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5844,13 +5844,13 @@
         <v>114</v>
       </c>
       <c r="C24">
-        <v>13.93379418645366</v>
+        <v>31.205416350269</v>
       </c>
       <c r="D24">
-        <v>264.7420895426195</v>
+        <v>33.46902168137658</v>
       </c>
       <c r="E24">
-        <v>0.00106178420989512</v>
+        <v>0.002377917880840433</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5861,13 +5861,13 @@
         <v>115</v>
       </c>
       <c r="C25">
-        <v>3.540722087886996</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>67.27371966985292</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0004178336190567614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5878,13 +5878,13 @@
         <v>116</v>
       </c>
       <c r="C26">
-        <v>5.56551621733533</v>
+        <v>14.06413519586259</v>
       </c>
       <c r="D26">
-        <v>105.7448081293713</v>
+        <v>15.08433153131376</v>
       </c>
       <c r="E26">
-        <v>0.0004763365471872073</v>
+        <v>0.001203708934942022</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5895,13 +5895,13 @@
         <v>117</v>
       </c>
       <c r="C27">
-        <v>3.169813575827574</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>60.2264579407239</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0.0004519266575174756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5912,13 +5912,13 @@
         <v>118</v>
       </c>
       <c r="C28">
-        <v>2.960521152490608</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>56.24990189732154</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0.0005486510660657167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5929,13 +5929,13 @@
         <v>119</v>
       </c>
       <c r="C29">
-        <v>30.01797228675981</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>570.3414734484363</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.009079846426727104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5946,13 +5946,13 @@
         <v>120</v>
       </c>
       <c r="C30">
-        <v>5.711619254234119</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>108.5207658304482</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.000250740561667945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5963,13 +5963,13 @@
         <v>121</v>
       </c>
       <c r="C31">
-        <v>6.355541956829724</v>
+        <v>114.456735727057</v>
       </c>
       <c r="D31">
-        <v>120.7552971797648</v>
+        <v>122.7592968678797</v>
       </c>
       <c r="E31">
-        <v>0.001202562338094555</v>
+        <v>0.02165690363804295</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5997,13 +5997,13 @@
         <v>123</v>
       </c>
       <c r="C33">
-        <v>1.928764563984567</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>36.64652671570678</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>7.408921614814149E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6014,13 +6014,13 @@
         <v>124</v>
       </c>
       <c r="C34">
-        <v>4.220135488714521</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>80.18257428557591</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0.0003849434907155451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -6031,13 +6031,13 @@
         <v>125</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>93.09715158765825</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>99.85031284272152</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.002223587264442014</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6269,13 +6269,13 @@
         <v>139</v>
       </c>
       <c r="C49">
-        <v>2.105494029805374</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>40.0043865663021</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0.001111078643696767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -6354,13 +6354,13 @@
         <v>144</v>
       </c>
       <c r="C54">
-        <v>4.888739435544868</v>
+        <v>88.67205845917722</v>
       </c>
       <c r="D54">
-        <v>92.88604927535248</v>
+        <v>95.10422850284807</v>
       </c>
       <c r="E54">
-        <v>0.0002059717478636978</v>
+        <v>0.003735919884524003</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -6371,13 +6371,13 @@
         <v>145</v>
       </c>
       <c r="C55">
-        <v>2.155101321391312</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>40.94692510643493</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0.0003069507650464766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -6388,13 +6388,13 @@
         <v>146</v>
       </c>
       <c r="C56">
-        <v>2.609888211914895</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>49.58787602638301</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>0.0002190238512852379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -6405,13 +6405,13 @@
         <v>147</v>
       </c>
       <c r="C57">
-        <v>2.265173969320042</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>43.03830541708079</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>0.0003431561838085202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -6422,13 +6422,13 @@
         <v>148</v>
       </c>
       <c r="C58">
-        <v>1.411123107565323</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>26.81133904374115</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>0.0003104781314775189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -6439,13 +6439,13 @@
         <v>149</v>
       </c>
       <c r="C59">
-        <v>3.039530215989202</v>
+        <v>11.48822254509494</v>
       </c>
       <c r="D59">
-        <v>57.75107410379483</v>
+        <v>12.32156511313291</v>
       </c>
       <c r="E59">
-        <v>0.0002040090083891001</v>
+        <v>0.0007710733972142383</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -6456,13 +6456,13 @@
         <v>150</v>
       </c>
       <c r="C60">
-        <v>5.351333918189278</v>
+        <v>103.3940029058544</v>
       </c>
       <c r="D60">
-        <v>101.6753444455963</v>
+        <v>110.8940860181962</v>
       </c>
       <c r="E60">
-        <v>0.0002379322359250046</v>
+        <v>0.004597127869185649</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -6473,13 +6473,13 @@
         <v>151</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>7.829010919620254</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>8.396918447468353</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.0006804876940130599</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -6609,13 +6609,13 @@
         <v>159</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>3.148623956803797</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>3.377021549525316</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.0003244331743229055</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -6643,13 +6643,13 @@
         <v>161</v>
       </c>
       <c r="C71">
-        <v>3.60778765739473</v>
+        <v>76.07756263196204</v>
       </c>
       <c r="D71">
-        <v>68.54796549049986</v>
+        <v>81.59614230474683</v>
       </c>
       <c r="E71">
-        <v>0.0002471087436571733</v>
+        <v>0.00521079196109329</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -6694,13 +6694,13 @@
         <v>164</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>54.71797849256329</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>58.6871582795886</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.002107861569881863</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -6779,13 +6779,13 @@
         <v>169</v>
       </c>
       <c r="C79">
-        <v>6.26376443834693</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>119.0115243285916</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>0.0002577680838825897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -6796,13 +6796,13 @@
         <v>170</v>
       </c>
       <c r="C80">
-        <v>4.992664532729352</v>
+        <v>45.18700867737341</v>
       </c>
       <c r="D80">
-        <v>94.86062612185769</v>
+        <v>48.46482277832277</v>
       </c>
       <c r="E80">
-        <v>0.0004895729096616348</v>
+        <v>0.004430967707136048</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -6813,13 +6813,13 @@
         <v>171</v>
       </c>
       <c r="C81">
-        <v>10.43066017292758</v>
+        <v>28.75459554064874</v>
       </c>
       <c r="D81">
-        <v>198.1825432856239</v>
+        <v>30.84042112390823</v>
       </c>
       <c r="E81">
-        <v>0.001030392193314983</v>
+        <v>0.00284052114399375</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -6830,13 +6830,13 @@
         <v>172</v>
       </c>
       <c r="C82">
-        <v>4.448699657137476</v>
+        <v>129.3956799329193</v>
       </c>
       <c r="D82">
-        <v>84.52529348561201</v>
+        <v>138.781895057587</v>
       </c>
       <c r="E82">
-        <v>0.0004656861359926175</v>
+        <v>0.01354503087332977</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -6847,13 +6847,13 @@
         <v>173</v>
       </c>
       <c r="C83">
-        <v>2.825398105411891</v>
+        <v>129.3956799329193</v>
       </c>
       <c r="D83">
-        <v>53.68256400282593</v>
+        <v>138.781895057587</v>
       </c>
       <c r="E83">
-        <v>0.0007796352388001907</v>
+        <v>0.03570520969451416</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -6864,13 +6864,13 @@
         <v>174</v>
       </c>
       <c r="C84">
-        <v>3.946756054493127</v>
+        <v>123.9026075974683</v>
       </c>
       <c r="D84">
-        <v>74.98836503536943</v>
+        <v>132.8903615164557</v>
       </c>
       <c r="E84">
-        <v>0.0002579579120583744</v>
+        <v>0.008098209646893355</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -6881,13 +6881,13 @@
         <v>175</v>
       </c>
       <c r="C85">
-        <v>4.481886145159305</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>85.15583675802678</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>0.0002658453137884397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -6898,13 +6898,13 @@
         <v>176</v>
       </c>
       <c r="C86">
-        <v>3.940858926611381</v>
+        <v>185.8539113962025</v>
       </c>
       <c r="D86">
-        <v>74.87631960561622</v>
+        <v>199.3355422746835</v>
       </c>
       <c r="E86">
-        <v>0.0006582359990999467</v>
+        <v>0.03104291154103934</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -6915,13 +6915,13 @@
         <v>177</v>
       </c>
       <c r="C87">
-        <v>3.473592150803439</v>
+        <v>61.01522640617088</v>
       </c>
       <c r="D87">
-        <v>65.99825086526533</v>
+        <v>65.44120137863924</v>
       </c>
       <c r="E87">
-        <v>0.0003486142262950059</v>
+        <v>0.006123567483557897</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -6932,13 +6932,13 @@
         <v>178</v>
       </c>
       <c r="C88">
-        <v>15.53152587169874</v>
+        <v>61.01522640617088</v>
       </c>
       <c r="D88">
-        <v>295.0989915622761</v>
+        <v>65.44120137863924</v>
       </c>
       <c r="E88">
-        <v>0.004054170157060492</v>
+        <v>0.01592671010341187</v>
       </c>
     </row>
   </sheetData>
@@ -6979,13 +6979,13 @@
         <v>92</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.695984519746837</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>8.226546189113925</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.001191484371291695</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6996,13 +6996,13 @@
         <v>93</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3.695984519746837</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>8.226546189113925</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0009342731344152773</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7013,13 +7013,13 @@
         <v>94</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>22.17590711848101</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>49.35927713468353</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.003308355530132928</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7030,13 +7030,13 @@
         <v>95</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.695984519746837</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>8.226546189113925</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0007782658495992497</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7047,13 +7047,13 @@
         <v>96</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3.695984519746837</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>8.226546189113925</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.0009788094596787174</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>38.32376764424763</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7115,13 +7115,13 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>176.488728250633</v>
       </c>
       <c r="D10">
-        <v>203.0272082758245</v>
+        <v>392.8297499772152</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.007918909151103017</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7132,13 +7132,13 @@
         <v>101</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>18.42524827151899</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>41.01103647531646</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.006060936931420719</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7152,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>43.73835523320939</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -7166,13 +7166,13 @@
         <v>103</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>118.0965467848101</v>
       </c>
       <c r="D13">
-        <v>503.0897769143104</v>
+        <v>262.8600557468354</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.04264952935529438</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7183,13 +7183,13 @@
         <v>104</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>93.82114550126585</v>
       </c>
       <c r="D14">
-        <v>80.1068509968644</v>
+        <v>208.8277109544304</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.01220517048279769</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7200,13 +7200,13 @@
         <v>105</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>180.4416821082912</v>
       </c>
       <c r="D15">
-        <v>286.9871118219212</v>
+        <v>401.6282601765189</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.0190038633078769</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7217,13 +7217,13 @@
         <v>106</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>23.32406799</v>
       </c>
       <c r="D16">
-        <v>66.56777594798301</v>
+        <v>51.91486101</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.001214731940523931</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7234,13 +7234,13 @@
         <v>107</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2.591563110000001</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>5.768317890000001</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.0002020869549282596</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7268,13 +7268,13 @@
         <v>109</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>13.12183853164557</v>
       </c>
       <c r="D19">
-        <v>45.24639037186023</v>
+        <v>29.20667286075949</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.002155361125434555</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7285,13 +7285,13 @@
         <v>110</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>16.16884016077787</v>
       </c>
       <c r="D20">
-        <v>199.175954610803</v>
+        <v>35.98870874495718</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.0006585280886562891</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7305,7 +7305,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>78.31078510711545</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>119.7900170344815</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -7339,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>48.07703218235745</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -7353,13 +7353,13 @@
         <v>114</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>20.04907578981013</v>
       </c>
       <c r="D24">
-        <v>278.6758837290731</v>
+        <v>44.62536224183545</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.001527781436394889</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>70.81444175773991</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -7387,13 +7387,13 @@
         <v>116</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>9.036024685424671</v>
       </c>
       <c r="D26">
-        <v>111.3103243467066</v>
+        <v>20.11244204175168</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.0007733673986156</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -7407,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>63.39627151655148</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>59.21042304981215</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -7441,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>600.3594457351961</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>114.2323850846823</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -7472,13 +7472,13 @@
         <v>121</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>73.5369701044304</v>
       </c>
       <c r="D31">
-        <v>127.1108391365945</v>
+        <v>163.6790624905063</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.01391428005760272</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -7509,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>38.57529127969134</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>84.40270977429043</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -7540,13 +7540,13 @@
         <v>125</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>59.81371397341775</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>133.133750456962</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.001428626014460155</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -7781,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>42.10988059610748</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -7863,13 +7863,13 @@
         <v>144</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>56.97064895822786</v>
       </c>
       <c r="D54">
-        <v>97.77478871089734</v>
+        <v>126.8056380037974</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.002400280133062054</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>43.10202642782625</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>52.1977642382979</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -7917,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>45.30347938640083</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>28.22246215130647</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -7948,13 +7948,13 @@
         <v>149</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>7.381034174050633</v>
       </c>
       <c r="D59">
-        <v>60.79060431978404</v>
+        <v>16.42875348417721</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.0004954046697127749</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -7965,13 +7965,13 @@
         <v>150</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>66.42930756645569</v>
       </c>
       <c r="D60">
-        <v>107.0266783637856</v>
+        <v>147.8587813575949</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.002953595107663318</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -7982,13 +7982,13 @@
         <v>151</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>5.03003810379747</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>11.19589126329114</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.0004372045287959557</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -8118,13 +8118,13 @@
         <v>159</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>2.022950106962026</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>4.502695399367087</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.0002084441120002087</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -8152,13 +8152,13 @@
         <v>161</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>48.87884853037976</v>
       </c>
       <c r="D71">
-        <v>72.15575314789459</v>
+        <v>108.7948564063291</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.003347866337697244</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -8203,13 +8203,13 @@
         <v>164</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>35.15559239936709</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>78.2495443727848</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.001354273754742752</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>125.2752887669386</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -8305,13 +8305,13 @@
         <v>170</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>29.03206775126583</v>
       </c>
       <c r="D80">
-        <v>99.85329065458704</v>
+        <v>64.61976370443035</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.002846839355880156</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -8322,13 +8322,13 @@
         <v>171</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>18.47445516601266</v>
       </c>
       <c r="D81">
-        <v>208.6132034585515</v>
+        <v>41.1205614985443</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.001824998040700648</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -8339,13 +8339,13 @@
         <v>172</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>83.13504824705697</v>
       </c>
       <c r="D82">
-        <v>88.97399314274949</v>
+        <v>185.0425267434494</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.00870250688234659</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -8356,13 +8356,13 @@
         <v>173</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>83.13504824705697</v>
       </c>
       <c r="D83">
-        <v>56.50796210823782</v>
+        <v>185.0425267434494</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.0229401347260091</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -8373,13 +8373,13 @@
         <v>174</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>79.60582042531647</v>
       </c>
       <c r="D84">
-        <v>78.93512108986255</v>
+        <v>177.1871486886076</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.005202994799040292</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -8393,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>89.63772290318609</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -8407,13 +8407,13 @@
         <v>176</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>119.4087306379747</v>
       </c>
       <c r="D86">
-        <v>78.8171785322276</v>
+        <v>265.7807230329113</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.01994466855486466</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -8424,13 +8424,13 @@
         <v>177</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>39.20149261329114</v>
       </c>
       <c r="D87">
-        <v>69.47184301606877</v>
+        <v>87.25493517151898</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>0.003934312787363623</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -8441,13 +8441,13 @@
         <v>178</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>39.20149261329114</v>
       </c>
       <c r="D88">
-        <v>310.6305174339748</v>
+        <v>87.25493517151898</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>0.01023270493690711</v>
       </c>
     </row>
   </sheetData>
